--- a/CBD_GEO_data_and_articles.xlsx
+++ b/CBD_GEO_data_and_articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C2F299-9737-4C06-9A72-8C7B8A908943}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069E40C-05CD-4695-9051-97587A6481B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="198">
   <si>
     <t>Public on Apr 17, 2015</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Chips were scanned using the Affymetrix 7G Plus scanner and Command Console Software</t>
   </si>
   <si>
-    <t>Swift W, Wong A, Li KM, Arnold JC, McGregor IS (2013) Analysis of Cannabis Seizures in NSW, Australia: Cannabis Potency and Cannabinoid Profile. PLoS ONE 8(7): e70052. doi:10.1371/journal.pone.0070052</t>
-  </si>
-  <si>
     <t>There is suggestive evidence from analyses of cannabinoids in hair samples that regular users with a high THC/low CBD profile in hair may have increased vulnerability to psychosis relative to users with a more balanced THC/CBD profile [17,18,19]. This is consistent with laboratory research showing that CBD may prevent or inhibit the psychotogenic and memory-impairing effects of THC [20,21,22]. While the evidence for the ameliorating effects of CBD is not universal [1,18,23] it is thought that consumption of high THC/ low CBD cannabis may predispose users towards adverse psychiatric effects, relative to the use of cannabis with more moderate THC/higher CBD content.</t>
   </si>
   <si>
@@ -305,10 +302,340 @@
   </si>
   <si>
     <t>Fact 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBD-A is also gathering attention
+for its therapeutic potential, with evidence of anti-emetic [39] and anti-cancer properties [40]. </t>
+  </si>
+  <si>
+    <t>Beneﬁt of Tetrahydrocannabinol versus Cannabidiol for Common Palliative Care Symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-ratings of efﬁcacy of cannabis, deﬁned as a three-point reduction in neuropathic pain, anorexia, anxiety symptoms, depressive symptoms, insomnia, and post-traumatic ﬂashbacks. </t>
+  </si>
+  <si>
+    <t>Fact 2</t>
+  </si>
+  <si>
+    <t>Fact 3</t>
+  </si>
+  <si>
+    <t>Fact 4</t>
+  </si>
+  <si>
+    <t>Recent reviews and meta-analyses have pointed to beneﬁts for pain, nausea, anorexia, spasticity, and several other symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, there is inadequate evidence to guide clinicians and patients in choosing the optimal ratio of the two most common cannabinoids, tetrahydrocannabinol (THC) and cannabidiol (CBD). These molecules have different receptors, physiological effects, and potential medical beneﬁts. In
+particular, THC is associated with psychoactive effects such as euphoria, anxiety symptoms, paranoia, and hallucinations, whereas CBD is not. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data that deﬁne the relative contributions of THC and CBD to symptom management could be very useful in suggesting an optimal ratio for a given symptom. Speciﬁcally, such data could help patients and clinicians to identify those symptoms for which THC offers the greatest contribution. That, in turn, would make it possible to use higher THC:CBD ratiosonlyforthosesymptoms thatare mostTHCresponsive, avoiding unnecessary toxicity. </t>
+  </si>
+  <si>
+    <t>Fact 5</t>
+  </si>
+  <si>
+    <t>Fact 6</t>
+  </si>
+  <si>
+    <t>Fact 7</t>
+  </si>
+  <si>
+    <t>Fact 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And for anxiety symptoms, increases above a ratio of 1:1 were associated with reduced effectiveness. This inverted Ushaped curve seen for anxiety symptoms is not surprising. One well-recognized side effect of THC is anxiety symptoms, sometimes accompanied by paranoia. So it is reasonable that even if THC offers some symptom relief, higher ratios may have the opposite effect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the ﬁnding that increasing THC:CBD ratios are associated with greater effectiveness for neuropathic pain is unexpected. There is increasing evidence that CBD offers beneﬁts in the treatment of neuropathic pain, and some suggestion that CBD-only formulations may be effective.9,</t>
+  </si>
+  <si>
+    <t>these results did not indicate that a higher THC:CBD ratio isassociated withgreater effectiveness inthe treatment of anorexia. This is also unexpected, because much of the evidence for the use of cannabis for this symptom comes from studies of either THC-dominant cannabis strains or synthetic THC (dronabinol).19–21 Those studies are generally consistent in demonstrating modest effectiveness. Therefore, the results reported here suggest that CBD may also have a role to play in the treatment of anorexia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We looked ﬁrst at the three symptoms for which an increasing THC:CBD ratio was signiﬁcantly associated with response (neuropathic pain, insomnia, and depressive symptoms). Of these, the largest relative increase was seen for neuropathic pain (from 19.3% to 51.3%), a greater than twofold change. There were substantial increases for insomnia as well (from 43.3% to 72.3%). The increases for depressive symptoms were more modest, but linear (from 49.4% to 63.1%). </t>
+  </si>
+  <si>
+    <t>Cannabidiol Reduces Ab-Induced Neuroinflammation and Promotes Hippocampal Neurogenesis through PPARc Involvement</t>
+  </si>
+  <si>
+    <t>Peroxisome proliferator-activated receptor-c (PPARc) has been reported to be involved in the etiology of pathological features of Alzheimer’s disease (AD). Cannabidiol (CBD), a Cannabis derivative devoid of psychomimetic effects, has attracted much attention because of its promising neuroprotective properties in rat AD models, even though the mechanism responsible for such actions remains unknown. This study was aimed at exploring whether CBD effects could be subordinate to its activity at PPARc, which has been recently indicated as its putative binding site. CBD actions on bamyloid-induced neurotoxicity in rat AD models, either in presence or absence of PPAR antagonists were investigated. Results showed that the blockade of PPARc was able to significantly blunt CBD effects on reactive gliosis and subsequently on neuronal damage. Moreover, due to its interaction at PPARc, CBD was observed to stimulate hippocampal neurogenesis. All these findings report the inescapable role of this receptor in mediating CBD actions, here reported.</t>
+  </si>
+  <si>
+    <t>Therefore the present study was aimed at exploring whether CBD neuroprotective effects depend upon its activity on PPARs receptors, particularly on PPARc isoform. To this purpose, the involvement of PPARs receptors in mediating anti-inflammatory and neuroprotective effects of CBD both in vitro in primary cultured astrocytes and in vivo, in a rat model of AD-related neuroinflammation induced by the intrahippocampal injection of fibrillar Ab (1–42) peptide was evaluated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, Cannabis derivatives are therapeutically limited by their unwanted psychotropic effects. However, one interesting exception to this is represented by cannabidiol (CBD), the major constituent of the plant, which lacks any undesired psychomimetic action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBD may account for a significant reduction of b amyloid (Ab) induced neuronal cell death, due to its ability to scavenge reactive oxygen species and reduce lipid peroxidation</t>
+  </si>
+  <si>
+    <t>CBD exerts anti-inflammatory properties, impairing the inducible form of nitric oxide synthase (iNOS) and interleukin 1b (IL-1b) expression which consequently decreases their release was also proved in an in vivo model of AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBD was reported to blunt t hyperphosphorylation in cultured neurons by reducing phosphorylation of glycogen synthase kinase 3b (GSK3b), acting as a Wnt/b-catenin pathway rescuer, although alternative mechanisms may be implicated in inducing this effect [6]. Indeed, since GSK3b also promotes amyloid precursor protein (APP) processing, and so increasing Ab generation [7], the CBD-mediated inhibition of GSK3b is likely to be effective in reducing the amyloid burden. Moreover, CBD was also described to protect neurons against glutamate toxicity [8], an effect occurring independently of the cannabinoid receptor 1 (CB1) signalling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A growing body of evidence suggests PPARs as drug targets for treating several dysmetabolic conditions and
+PLoS ONE | www.plosone.org 1 December 2011 | Volume 6 | Issue 12 | e28668
+inflammatory degenerative diseases, as well. PPARc is expressed in the CNS at low levels under physiological condition [13]. However, in some pathological situations, including AD, PPARc expression, but not other isoforms, was shown to be elevated [14]. These findings suggested that PPARc could play a role in regulating pathophysiological features of AD and established the basis for modulation of PPARc activity in the treatment of the disease. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment with Ab for 24 h resulted in a significant increase of NO, IL-1b, TNFa, and S100B release, as determined by Griess reaction and ELISA experiments (Figure 1). CBD concentration dependently antagonized the enhanced release of these pro-inflammatory molecules, and blockade of PPARc with GW9662 (PPARc antagonist, 9 nM) reversed this effect. </t>
+  </si>
+  <si>
+    <t>Fact 9</t>
+  </si>
+  <si>
+    <t>Fact 10</t>
+  </si>
+  <si>
+    <t>Fact 11</t>
+  </si>
+  <si>
+    <t>Fact 12</t>
   </si>
   <si>
     <r>
       <t>Analysis of Cannabis Seizures in NSW, Australia: Cannabis Potency and Cannabinoid Profile (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this is police seizures)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In astrocyte lysates, made 24 h after treatment, the parallel expression of iNOS, GFAP, and S100B was evaluated. CBD, in a concentration dependent manner, attenuated the Ab-induced protein up-regulation and such an effect was related to the inhibition of NFkB. In fact, in astrocyte lysates prepared 3 h after treatment, CBD down-regulated the expression of both p50 and p65. The reduction of reactive gliosis displayed by CBD was to be considered as the result of a selective PPARc dependent NFkB inhibition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation of PPARc has been reported to promote neurogenesis and agonists at these receptors regulate neuronal stem cell proliferation and differentiation as well [37]. In addition PPARc activation promotes neurite outgrowth in mature neurons,significantly contributing to a proper neuronal connectivity in neuronal networks [38]. According to these observations, results from the current investigation demonstrate that CBD-mediated activation of PPARc is associated with a significant neurogenic activity in the granule cell layer of the hippocampal DG. Results indicate that CBD markedly counteracts the massive reduction of neurogenesis in the DG caused by Ab exposure towards control animals and this effect is consequential, as expected, to a selective PPARc involvement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> results of the present research demonstrate that CBD may exert protective functions through a PPARc dependent activation, which leads to a reduction in reactive gliosis and consequently in neurodegeneration. Moreover, in the current experimental conditions this phytocannabinoid appears to stimulate neurogenesis since it increases DCX immunopositive cell proliferation rate in rat DG. </t>
+  </si>
+  <si>
+    <t>Cannabidiol Reduces Intestinal Inflammation through the Control of Neuroimmune Axis</t>
+  </si>
+  <si>
+    <t>CBD targets enteric reactive gliosis, counteracts the inflammatory environment induced by LPS in mice and in human colonic cultures derived from UC patients. These actions lead to a reduction of intestinal damage mediated by PPARgamma receptor pathway. Our results therefore indicate that CBD indeed unravels a new therapeutic strategy to treat inflammatory bowel diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite the ancient assumption that enteric glial cells (EGC) may serve as a mere mechanical support for enteric neurons, nowadays the knowledge on these cells is consistently expanded. EGC play a fundamental role in the maintenance of gut homeostasis since they assure the correct trophism of vicinal neurons in the myenteric plexus [1] and actively participate in the course of intestinal inflammation [2] where they appear as first defensive line against pathogens [3]. </t>
+  </si>
+  <si>
+    <t>Enteroglial cells share analogue features with glial cells in the brain. EGC play important functions in the maintenance of the enteric nervous system (ENS) homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enteric astroglial and microglial cells release neurotrophins, growth factors and cytokines cross-talking with other infiltrating immune cells such as macrophages, neutrophils and mast cells </t>
+  </si>
+  <si>
+    <t>Abnormalities in the enteroglial network were described in the intestinal mucosa of patients with inflammatory bowel diseases (IBD)</t>
+  </si>
+  <si>
+    <t>measures as the reactive enteric gliosis, i.e. the massive over-expression and secretion of S100B protein, a cell-specific astroglial derived signalling molecule [9]. The activation of EGC is therefore regarded as a general alteration of the whole enteric nervous system homeostasis. S100B protein, which is released by enteric glial cells, emerges as a pivotal signal molecule that extensively participates in the onset and in the progression of the inflammatory status as it orchestrates a wide range of signal activation pathways, directly correlated with the severity of gut degenerative processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was shown that CBD exerts its pharmacological activity targeting reactive astroglia and this results in a very efficient reduction of the neuroinflammatory/neurodegenerative status both in vitro and in vivo models of neuropathologies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the present study aims to evaluate: (a) the
+effect of CBD on enteroglial-derived S100B protein expression in a mouse model of acute intestinal inflammation and in rectal biopsies derived from patients with ulcerative colitis; (b) the efficacy of CBD to prevent S100B-mediated amplification of inflammatory/immune response through the involvement of other immune cells such as macrophages and mast cells; (c) the antiapoptotic effect of CBD in course of inflammation. </t>
+  </si>
+  <si>
+    <t>Moreover, here we aim to identify a specific receptor responsible for CBD action. Therefore, in the present paper we investigated the involvement of PPAR-c receptor, since recent data suggest that PPAR-c activation may underlie some of the pharmacological effects of CBD. In particular, it was showed that CBD, causes a time-dependent progressive vasorelaxant effect similar to that of rosiglitazone, a PPAR-c agonist, and that the effects of CBD were reversed by the presence of the PPAR-c antagonist, GW9662 [12,13].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multiple studies have shown that an increase of intestinal damage is associated with an alteration in cytokine levels [22,23] and an increase of gut epithelial apoptosis [24,25]. This agrees well with our results showing that the treatment with CBD accounts for a protection of intestinal damage as revealed by analysis of caspase-3 activation. Taken together all these results suggest, for the first time, that CBD, by modulating the glial-immune axis, regulates the fire up of the inflammatory reaction in the intestine thereby preventing the detrimental intestinal damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deregulation of the ENS not only takes place in the acute phase of inflammation but is also considered as a promoter event of chronic inflammation,  Therefore, in the second part of this work we focussed on the effect of CBD in human intestinal biopsies from patients with ulcerative colitis, a chronic intestinal inflammatory condition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our data evidenced that the administration of CBD in cultured biopsies of UC patients in remission phase was able to reduce the expression of S100B. A recent study by Cirillo et al., [8] indicates that cultured biopsies stimulated with LPS+INF-c represent an adequate ex vivo model for the study of EGCs involvement during UC. According to this theory, the pre-treatment of LPS/INF-c biopsies with CBD significantly prevents the expression of S100B, and therefore the activation of EGC. The reduced enterogliosis was accompanied with a lower environment in cultured biopsies, as revealed by the reduction of iNOS and NO production, two key markers of the inflammatory status </t>
+  </si>
+  <si>
+    <t>The results of the present study correlate and expand the findings suggesting CBD as a potent compound that is able to modulate experimental gut inflammation [29,30]. The exact cellular signalling pathways responsible for the effect of CBD still remain unclear, even though, for the first time, we identified PPAR-c as a key receptor in its action during gut inflammation.</t>
+  </si>
+  <si>
+    <t>Fact 13</t>
+  </si>
+  <si>
+    <t>Fact 14</t>
+  </si>
+  <si>
+    <t>However, in this study we demonstrate that during intestinal inflammation, CBD is able to control the inflammatory scenario and the subsequent intestinal apoptosis through the restoration of the altered glia-immune homeostasis. CBD is therefore regarded as a promising therapeutic agent that modulates the neuroimmune axis, which can be recognised as a new target in the treatment of inflammatory bowel disorders.</t>
+  </si>
+  <si>
+    <t>Cannabis and Its Secondary Metabolites: Their Use as Therapeutic Drugs, Toxicological Aspects, and Analytical Determination (Review)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabis sativa L. (Cannabinaceae), also known as marijuana or hemp, belongs to a group of herbaceous shrubs 1 to 2 m in height, and is widely distributed in temperate and tropical areas. Three species are usually recognized: Cannabis sativa, Cannabis indica, and Cannabis ruderalis (the latter may be included under C. sativa), and all may be treated as subspecies of a single species, C. sativa. The plant is accepted as being native from Central Asia. Several preparations of C. sativa including marijuana,hashish,charas,dagga,andbhang,areestimatedtobeconsumedby200–300millionpeople around the world [2], being the most popular illicit drug of the 21st century according to the United Nation Ofﬁce on Drugs and Crime (UNODC) [3]. </t>
+  </si>
+  <si>
+    <t>Cannabis has been cultivated widely in the world for its achene fruits (often wrongly referred to as seeds), which are rich in oils and other phytonutrients, and are frequently used as human food or animal feedstuff, as well as for its ﬁbers, for traditional medicine and spiritual purposes as therapeutic and hallucinogenic drug</t>
+  </si>
+  <si>
+    <t>Out of over 100 cannabinoids identiﬁed so far, the most potent in terms of psychoactive activity is trans-∆-9-tetrahydrocannabinol (THC) [7]. Four stereoisomers of THC exist, but only the (–)-trans isomer occurs naturally. Two structurally related substances (∆9-tetrahydrocannabinol-2-oic acid and ∆9-tetrahydrocannabinol-4-oic acid - THCA) are usually also present, sometimes in large amounts. TheheatofcombustionduringsmokingconvertspartlyTHCAtoTHC.Oneisomerwhichisalsoactive (∆8-THC)occursinmuchsmalleramounts. Otherrelatedcompoundsincludecannabidiol(CBD)and cannabinol(CBN),thelatterparticularlyinagedsamples,andpresentingpharmacologicaleffectsdifferent thanthoseattributedtoTHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All these compounds are collectively known as cannabinoids and, unlike many other psychoactive substances, are not nitrogenous bases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another common way to consume cannabinoids, both therapeutic and recreational, is oral administration in the form of capsules, food or cannabis-infused drink [18]. This route has the advantage of not forming harmful compounds during consumption, as it happens when smoked [18]. By oral consumption, both THC and CBD have reduced bioavailability (less than 20%), since they are highly lipophilic [28–30]. In a study by Ohlsson et al. [31] a bioavailability of 6±3% was obtained for the ingestion of 20 mg of THC in a chocolate biscuit. However, in another study by Wall et al. [32], after ingestion of cannabinoids in gelatine capsules, the bioavailability obtained was 10% to 20%. Absorption is variable, as the compounds are degraded either in the stomach or in the intestines [33]. InareaswherepHislow,isomerizationsandprotonationsmayoccur,resultinginsubstitutedCBDs[33]. This route of administration causes extensive hepatic metabolism to the ingested compounds, with maximum plasma concentrations of THC and CBD being reached between 1 h and 2 h after the consumption [13,20]. Nevertheless, there are studies where these same concentrations were only reached at 4 h [34] and 6 h [26,35] after consumption. In 2015, Ahmed et al. [36] administered orally 0.75 mg and 1.5 mg in elderly patients, with a maximum concentration of 0.41 µg/L and 1 µg/L, respectively. However, in another study, where 20 mg of cannabinoids were administered orally in daily users, the maximum concentrations obtained were 16.5 µg/L [37]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onevariationoforaladministrationistheuseoforomucosaldelivery. Thisrouteofadministration ismainlyusedfortherapeuticapplications[13]. Absorptionoccursrapidlythroughthebuccalmucosa, reaching higher plasma concentrations when compared to the oral route of administration [13]. Sublingual administration is also common for therapeutic use [20]. By using this route of administration, ﬁrst-pass hepatic metabolism is avoided [18]. In a phase II study where THC was administered, it was possible to measure plasma concentrations of 14 µg/L [38]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dermal administration of cannabinoids is a pathway that has been used for therapeutic purposes [20]. The application of compounds in the skin also avoids the ﬁrst pass metabolism [18]. Cannabinoids have a hydrophobic nature, limiting its diffusion through the skin [13]. Studies on human skin have shown that CBD crosses the skin barrier more easily than THC, since it is more lipophilic [39,40]. Another study in guinea pigs showed that the plasma concentration of THC was 4.4 ng/mL at 1.4 h and was maintained for more than 48 h [41]. There are also studies in which the ways of improving the bioavailability of cannabinoids using this route of administration have been explored [20,40,42]. </t>
+  </si>
+  <si>
+    <t>Other less common routes that have been investigated for therapeutic purposes are rectal and ophthalmic [20]. During rectal administration, the bioavailability of cannabinoids is very discrepant, depending on the composition of the suppository [20]. A THC hemisuccinate suppository was the one with the highest bioavailability (13.5%) in monkeys [43]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After absorption, the cannabinoids decrease their concentration in the plasma, as they are distributed rapidly by the tissues [18]. This distribution is based on the physical-chemical properties of cannabinoids and the degree of the tissue irrigation [13,20]. Also, individual characteristics, such as bodycompositionandhealthstatus,caninﬂuencethisprocess[46]. Thus,cannabinoidsdistributemore rapidly through more irrigated tissues, such as the brain, lung, heart and liver [13,47,48]. Distribution volumes are estimated approximately 3.4 L/kg for THC and 32 L/kg for CBD [21,49]. Due to their lipophilicity, these compounds have high afﬁnity for adipose tissue, and their chronic consumption can lead to accumulation in that tissue with subsequent redistribution [13,20]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The elimination half-life of THC is not easy to calculate because it is inﬂuenced by the balance between plasma and adipose tissue, which is a time-consuming process[13,20]. Also,CBDpresentsagreatvariationasregardsitshalf-lifetime. InastudybyConsroe et al. [60], it was possible to verify that after daily oral intake of CBD, elimination half-life ranged from 2 to 50 days. In another work by Ohlsson et al. [21] a mean elimination half-life of 31±4 h after inhalation of CBD was reported. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabinoids after being metabolized are excreted for days [61]. Typically, between 80% and 90% oftheTHCconsumedisexcretedascarboxylateandhydroxylatemetabolites[18,62,63]. Approximately 5%oftheacidmetabolitesareeliminatedunchanged,20%to35%areexcretedintheurine,andbetween 65% and 80% are eliminated in the faeces [25,32,48]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerningthemechanismofaction,theeffectsofcannabinoidsoccurthroughagonisminspeciﬁc receptors [20]. These receptors are part of the endocannabinoid system, which plays important roles in the development of the central nervous system (CNS), synaptic plasticity, and also in the response to both external and endogenous aggressions. This system is constituted not only by cannabinoid receptors, but by endogenous cannabinoids (endocannabinoids) and the enzymes responsible for their synthesis and degradation as well [66]. Two cannabinoid receptors are identiﬁed, CB1 and CB2 [67]. Otherentities,asthetransientreceptorpotential(TRP)channels,andperoxisomeproliferatoractivated receptors (PPARs) are also engaged by some cannabinoid’s compounds. The endocannabinoid system also plays an important role in different diseases, for instance in epilepsia. CB1 and CB2 receptors are coupled to inhibitory G proteins, which when activated inhibit adenylate cyclase, inhibiting the conversion of AMP to cyclic-AMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CB1 receptors are found mainly in the central and peripheral nervous system and also in some peripheral organs and tissues (e.g., leukocytes, spleen, endocrine glands, heart and areas of the reproductive, urinary and gastrointestinal systems) [67]. CB2 receptors are mainly located at the level of the immune system (tonsils, spleen, and leukocytes) and hematopoietic cells, which are of great interest for therapeutic purposes [20,30]. </t>
+  </si>
+  <si>
+    <t>The afﬁnity presented by cannabinoids is different for each type of receptor [20]. THC has afﬁnity for both types of receptors, behaving as a partial agonist of both, yet it is more effective for CB1 type [13,20,68]. It is through this link that THC exerts its psychoactive and analgesic effects [13]. Cannabidiol has low afﬁnity for both types of receptors [69,70]. It has been described that this compound exerts its activity throughnon-cannabinoidreceptors[30,69]. ThisevidencewasveriﬁedinastudybyLaprairieetal.[69] where CBD was found to modulate CB1R receptors by binding to an allosteric site. TRP channels are located mostly on cell-membranes, and many of them are responsible for mediating several physiological responses, for instance pain, temperature, tastes, pressure, and vision. These channels interact with other proteins, and often form signalling complexes, for which the exact pathways of which are not known [71</t>
+  </si>
+  <si>
+    <t>Fact 15</t>
+  </si>
+  <si>
+    <t>Fact 16</t>
+  </si>
+  <si>
+    <t>Fact 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerning regulation issues, cannabis and cannabis resin are both listed in Schedules I and IV of the United Nations 1961 Single Convention on Narcotic Drugs [90]. The debate concerning laws aiming at prohibiting or permitting the use of this drug worldwide has gained new fuel since 2012, asthesupplyanduseofrecreationalcannabisinUruguayandsomestatesoftheUS(andmorerecently in Canada). Legislative proposals aiming at legalizing cannabis have raised important concerns on the eventual increase in its use, and consequently the related harms, and possibilities related to the ways in which cannabis for non-medical purposes could be regulated to mitigate these concerns have raised. Indeed, the use of cannabis-based products as medicine to treat certain conditions is not prohibited by international law. Also, and according to UN conventions, the use of any drug under international control should be limited to those situations involving medical and scientiﬁc purposes. </t>
+  </si>
+  <si>
+    <t>Cannabis sativa in medicine has a long history. However, this use has largely declined in the twentieth century, and its consumption for medical purposes was limited when cannabis was included in the United Nations Single Convention on Narcotic Drugs in 1961, and classiﬁed as not presenting known medical uses. Notwithstanding, there has been a reappearanceofpatientinterestinusingthesedrugsforthetreatmentofavarietyofmedicalconditions, including chronic and cancer pain, depression, anxiety disorders, sleep disturbances and neurological disorders in the past 20 years, since their symptoms were reportedly improved by using cannabis. This increased interest of patients in using cannabis medically was accompanied by a renewed interest of scientists on the potential medical use of several of the plant’s constituents. This occurred after the discovery in the early 1990s of a cannabinoid system in the human organism, which has been associated to the control of important biological functions, such as cognition, memory, pain, sleep and immune functioning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palace et al. [98] developed a state program with safe and controlled administration of medical cannabis to resident patients diagnosed with chronic pain, neuropathy or Parkinson’s disease. These authors concluded that the elderly who used medicinal cannabis demonstrated signiﬁcant decreases in the use of prescription drugs, mainly the use of opioids, and medicinal cannabis should be seen as an additional clinical option to relief the symptoms...available medicinal cannabis formulations contained a standardized dose of CBD with little or no THC; this is capable of eliminating psychoactive effects in the elderly, improving the safety proﬁle in chronic pain treatment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abstinence patterns of cannabis in a large sample of patients who used medical cannabis, in order to test the association between withdrawal symptoms and functioning. Participants in this study were adults over21yearsofageinterestedinhavingormaintainingmedicalcertiﬁcationfortheuseofcannabisfor the treatment of chronic pain. Two-thirds of the patients reported at least one symptom of moderate or severe abstinence and the most frequently observed symptom was difﬁcult sleep, which was followed byanxiety,irritabilityandappetitedisturbances. Abstinencesymptomsoccurredatsigniﬁcantlyhigher rates for patients with poor mental functioning compared to patients with high mental functioning</t>
+  </si>
+  <si>
+    <t>Fact 18</t>
+  </si>
+  <si>
+    <t>Fact 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yassin et al. [107] evaluated the improvement of pain and function in situations of patients with ﬁbromyalgia, with the addition of cannabis therapy to the standardized pharmacological analgesic treatment. A cross-over observational study was conducted in which thirty-one patients between 21 and 75 years were observed and treated with the standard therapy (oxycodone hydrochloride, naloxone hydrochloride, and duloxetine) for three months. After that time, patients were able to choose cannabis treatment for six months. The authors concluded that the standardized therapy led to a small improvement when compared to non-treated situations, while the cannabis treatment allowed a signiﬁcant improvement after three months of implementation and that this improvement was maintained at six months. No patient had to discontinue therapy due to adverse events, and most of them have decreased or discontinued standard analgesics consumption. The authors further concluded that additional randomized clinical trials are needed to assess whether the results can be generalized to the general population, as the mechanism of cannabis pain relief associated to this pathology is not deﬁned. Another associated problem is the lack of standardization of the amount of THC/CBD that should be applied. The proportion of THC to CBD recommended in the chronic pain therapeutic in this trial was 1:4.</t>
+  </si>
+  <si>
+    <t>Pain treatment is undoubtedly the most studied therapeutic indication of cannabis. In general, researchers have found that cannabis-based medicines are probably effective for treating the neuropathic pain and painful spasms usually associated to multiple sclerosis [108], as well as neuropathic pain associated to diabetes, HIV, and other illnesses. However, it is unclear whether or not smoked marijuana is effective in reducing pain in multiple sclerosis [108,109]. Cannabis can be used to treat chronic pain associated to cancer and other causes, and studies generally suggested cannabis-relatedimprovementsinchronicpainmeasuresincancerpatients[103,110,111]. Moststudies used Sativex® preparations, and have generally shown positive results [111,112].</t>
+  </si>
+  <si>
+    <t>Fact 20</t>
+  </si>
+  <si>
+    <t>Fact 21</t>
+  </si>
+  <si>
+    <t>Although cannabis has been used medicinally for centuries, it is only within the last few decades that there is accumulated evidence that some cannabinoids have anticonvulsant properties in animal epileptic models. Despite this evidence, the mechanisms by which these compounds exert anti-seizure effects are poorly understood. Identiﬁcation of mechanisms underlying the anticonvulsant efﬁcacy of cannabinoids is critical to determine other potential treatment options</t>
+  </si>
+  <si>
+    <t>Fact 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, Devinsky et al. [143] presented an interim analysis of the safety and efﬁcacy from 264 patients with Dravet syndrome treated with long-term CBD (mean modal dose 21 mg/kg/day, median treatment 274 days). In this open-label extension trial, CBD treatment had an acceptable safety proﬁle. Sustained reductions in convulsive and total seizures were observed through 48 weeks and 85% of patientscaregivers reported improvements in overall condition [143]. In two additional randomized, double-blind, placebo-controlled trials, CBD treatment at a dose of 10 mg or 20 mg per kilogram per day was associated with greater reductions in the frequencies of seizures among children and adults with the Lennox–Gastaut syndrome [140,144]. Adverse events that occurred more frequently in the CBD treatment with the concomitant AEDs included diarrhea, vomiting, fatigue, pyrexia, somnolence, and abnormal results on liver-function tests [139–144]. Some effects of CBD may relate to interactions with other AED [145]. CBD inhibits cytochrome P450 (CYP2C19) and produces an increase in plasma concentrations of N-desmethylclobazam (active metabolite) [146]. In patients taking clobazam and CBD who experience bothersome sedation, a reduction of the clobazam (or CBD) dose may be considered. In these trials [139–144], abnormal liver function test results were noted in participants taking concomitant valproate, suggesting a CBD-valproate interaction. CBD had no effect on systemic levels of valproate, which suggests that the interaction may be pharmacodynamics [147]. </t>
+  </si>
+  <si>
+    <t>Fact 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parkinson’s Disease (PD) is a progressive neurodegenerative disorder characterized clinically by symptoms such as bradykinesia, rigidity, tremor, and postural instability. These symptoms are produced by brain dopaminergic denervation at the striatum level and progressive death of dopaminergicneuronsintheparscompactaofthesubstantianigra. Parkinson’sDiseaseismultifaceted with disparate etiologies, a range of clinical symptoms and variations in pathology [155]. Scientiﬁc evidence indicates that immunological pathways are important in the pathophysiology of PD [156]. The impact cannabis has on motor and nonmotor symptoms of PD may be modulated by the dopaminergic, serotonergic, adrenergic, and neuroprotective properties of cannabinoids. The CB1 receptor is one of the most abundant receptors in the CNS. The CB1 receptor is highly expressed in the basal ganglia, the brain structures primarily affected in PD [157]. This speciﬁc localization of CB1 may explain the effect of cannabinoids on cognitive and motor activity. The CB2 receptors are expressed primarily in peripheral immunocompetent cells and lymphoid organs but are also expressed in the CNS [158]. The CB2 receptors have been found to modulate microglia activation and may play a role in neuroinﬂammation/neuroprotection [159], since as mentioned above, their activation has proven to decrease the production of proinﬂammatory molecules in a number of neural cell types. </t>
+  </si>
+  <si>
+    <t>Fact 24</t>
+  </si>
+  <si>
+    <t>Fact 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The results of clinical trials examining the role of cannabinoids in the treatment of PD are mixed. A ﬁrst preliminary clinical open pilot study reported that CBD treatment (100–600 mg/day CBD in capsules with sesame oil vehicle) for six weeks in PD patients, improved dystonia in all patients (n = 5) in a range from 20 to 50%. However, in two patients CBD treatment at doses over 300 mg/day exacerbated the hypokinesia and resting tremor. Side effects included hypotension, dry mouth, psychomotor slowing, lightheadedness, and sedation [163]. Inanothertrial,21PDpatientswererandomizedtoplacebo,CBD75mg/dayorCBD300mg/day for six weeks. No signiﬁcant changes were found between CBD and placebo in scores obtained with Uniﬁed PD Rating Scale (motor and general symptoms score) and possible neuroprotective effects. However, in the PD Questionnaire (well-being and quality of life) signiﬁcant differences were found between the total score of the placebo and CBD 300 mg/day groups. No serious adverse events were reported [165]. Unfortunately, a few randomized double-blind clinical trials have been carried out with cannabis on people with PD. A crossover study in 19 PD patients demonstrated that an oral cannabis extract (1.25 mg CBD and 2.5 mg THC and per capsule, maximum daily dose 0.25 mg/kg THC) was well tolerated and had no pro- or antiparkinsonian action [172]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A widely accepted theory underlying the pathophysiology of Alzheimer’s disease (AD) is the deposition of amyloid-β protein in speciﬁc brain regions leading to localized neuroinﬂammatory responses and accumulation of intra-cellular neuroﬁbrillary tangles. These events result in neuronal cell death with accompanying loss of functional synapses and changes in neurotransmitter levels [174]. Pre-clinical studies suggest that the endocannabinoid system protects against neuronal cell death, oxidativestress,andinﬂammation,eventsassociatedwiththedevelopmentofAD.In-vitroexperiments determined that THC could bind and competitively inhibit the enzyme acetylcholinesterase as well as prevent acetylcholinesterase-induced amyloid-β protein aggregation [175]. Several mechanisms have been suggested to explain CBD neuroprotection: reduction of oxidative stress and anti-apoptotic effects [176], inhibition Aβ-induced tau protein hyperphosphorylation which leads to the formation of neuroﬁbrillary tangles [177], decrease in amyloid-β production and amyloid-β induced neurodegeneration by inhibition of inducible nitric oxide synthase (iNOS) and interleukin-1β protein expression [178]. Long-term CBD treatment (CBD 20 mg/kg/day for 8 months) in a transgenic model of AD, prevented social recognition deﬁcit (not associated with any changes in amyloid load or oxidative damage). This study revealed a subtle impact of CBD on neuroinﬂammation, cholesterol and dietary phytosterol retention [179]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple sclerosis is a chronic autoimmune, inﬂammatory neurological disease characterized by demyelination in the CNS caused by inﬂammatory immune-mediated attacks [187,188]. In 2015 there were more than 2 million people worldwide affected by multiple sclerosis [189] and it is currently incurable [190].Typical syndromes at presentation include monocular visual loss due to optic neuritis, limb weakness or sensory loss, double vision or ataxia [191]. A progressive clinical course develops in many of the persons affected, eventually leading to impaired mobility and cognition. Additional reports have supported and extended these ﬁndings demonstrating that THC, but not CBD, ameliorated both tremor and spasticity and reduced the overall clinical severity of the disease [194,195]. Some reports highlight the importance of the CB1 receptor in controlling spasticity, tremor and the neuroinﬂammatory response in multiple sclerosis [195–197]. Although great evidence suggests cannabinoids exert immunosuppressive effects, it is believed that the neuroprotective properties of cannabinoids may be more relevant than their immunosuppressive characteristics in multiple sclerosis [197–199]. </t>
+  </si>
+  <si>
+    <t>Fact 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To date, studies that were focused on disorders like the Huntington’s or Parkinson’s diseases, dystonia, and also on inﬂammatory bowel diseases (such as the Crohn’s disease) have not provided scientists with sufﬁcient evidence supporting the effectiveness of cannabis. This situation occurs also with anxiety-related disorders, such as post-traumatic stress disorder; depressive disorders; sleep disorders; and types of chronic pain not yet included in clinical trials as well. Despite that, some patients suffering from these conditions have reported clinical beneﬁts from using cannabis or cannabinoids. </t>
+  </si>
+  <si>
+    <t>Fact 27</t>
+  </si>
+  <si>
+    <t>Cannabidiol, a Non-Psychoactive Cannabinoid Compound, Inhibits Proliferation and Invasion in U87MG and T98G Glioma Cells through a Multitarget Effect</t>
+  </si>
+  <si>
+    <t>In the present study, we found that CBD inhibited U87-MG and T98G cell proliferation and invasiveness in vitro and caused a decrease in the expression of a set of proteins specifically involved in growth, invasion and angiogenesis. In addition, CBD treatment caused a dose-related down-regulation of ERK and Akt prosurvival signaling pathways in U87-MG and T98G cells and decreased hypoxia inducible factor HIF-1a expression in U87-MG cells. Taken together, these results provide new insights into the antitumor action of CBD, showing that this cannabinoid affects multiple tumoral features and molecular pathways. As CBD is a non-psychoactive phytocannabinoid that appears to be devoid of side effects, our results support its exploitation as an effective anti-cancer drug in the management of gliomas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malignant gliomas are among the most rapidly growing and devastating neoplasms with poor prognosis. Despite years of research in anti-tumoral therapeutic strategies and aggressive treatments including surgery, radiotherapy, and chemotherapy, these tumors invariably recur and generally lead to death within less than one year from diagnosis. Gliomas rarely metastasize out of the central nervous system, but their aggressive invasion of normal peritumoral tissue makes surgical removal virtually impossible [1]. Among the cellular signals that prompt tumor cells to egress from the tumor mass and are associated with enhanced glioma invasiveness, an important role is played by the high expression levels of matrix metalloproteinases (MMPs), a family of enzymes promoting tissue breakdown and remodelling through the degradation of extracellular matrix (ECM) [2], as well as the expression of several other proteases and factors [3]. Moreover, the up-regulation of many important signaling molecules downstream of the mitogen activated protein kinases MAPK/ERK and the PI3K/Akt pathways appears to be involved in glioma tumorigenesis and invasion associated with the aberrant tumor growth. Therefore, it can be suggested that controlling the expression of all of these factors may represent a promising therapeutic strategy for treating gliomas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, gliomas invariably develop hypoxic areas within the tumor mass as distinctive feature. Tumor hypoxia is a powerful driving force for malignant progression by activating adaptive transcriptional programs that promote cell survival, invasiveness
+and tumor angiogenesis [4], thus selecting a subpopulation of tumor cells fit to survive other injuries (including radio- and chemotherapy). Hypoxia-inducible factor-1 (HIF-1), a heterodimeric transcription factor consisting of a hypoxia-inducible a subunit and a constitutively expressed b subunit, has been identified as a master regulator of the hypoxic response [5,6] with pleiotropic effects: promotion of invasion, angiogenesis, switch to glycolytic metabolism, and up-regulation of cell survival-related molecules. Hence, HIF-1 has emerged as an attractive target for the development of novel antiglioma agents. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabinoids derived from the plant Cannabis sativa, as well as their endogenous and synthetic counterparts, are currently receiving attention as potential chemotherapeutic agents [7,8]. In particular, we previously demonstrated that the non-psychoactive cannabinoid compound cannabidiol (CBD) effectively limits human glioma cell growth, both in vitro and in vivo, by triggering apoptosis, oxidative stress, inhibition of the lipoxygenase (LOX) pathway and by modulating the endocannabinoid system [9–12]. In addition, CBD interferes with angiogenesis associated to tumor growth [13]. </t>
+  </si>
+  <si>
+    <t>The matrigel invasion assay was carried out to examine the effect of CBD on the invasiveness of U87-MG and T98G glioma cells. As shown in Fig. 1-A, CBD treatment caused a decrease of
+Cannabidiol on Glioma Cell Invasion and Survival
+PLOS ONE | www.plosone.org 2 October 2013 | Volume 8 | Issue 10 | e76918
+U87-MG cell invasion from 10% to 90% in the range of 0.5– 12 mM, reaching the statistical significance at 1 mM. Corresponding experiments addressing a possible impact of CBD on cellular viability demonstrated that the anti-invasive concentrations were far from those causing toxic effects in the cells (MTT test, IC50 11.16 mM; confidence limits 10.94 mM–11.38 mM; Fig. 1-B). When the experiments were performed in T98G cells (Fig. 1-C), CBD induced a slight, but significant, decrease of cell invasiveness at 9 mM (20%). Conversely, the highest concentration used, 12 mM, caused a strong reduction of the invasion (90%), though corresponding only to a 30% decrease in cell viability, as assessed through MTT assay (IC50 13.41 mM; confidence limits 13.09 mM–13.86 mM; Fig. 1-D).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The extent of the downregulation was different depending on the protein, ranging from 20% up to 60% compared to the control (Fig. 2-B). Regarding T98G cells, the panel of inhibited proteins only partially overlaps with the one obtained for U87-MG cells. In addition to the downregulation of MMP-9, TIMP-4, SerpinE1-PAI-1 and VEGF shown in U87-MG cells, in T98G cells CBD treatment also caused a significant reduction in the level of TGF-b1, CXCL-16, PDGF-AA, MCP-1 and Angiogenin. The inhibition ranged from 12% up to 80% compared to the control, depending on the considered protein (Fig. 3-B). The data of proteome analysis were confirmed in U87-MG cells by western blot analysis on MMP-9 and TIMP-4 (Fig. 2-C,-D). Consistent with the data obtained by the array CBD significantly reduced MMP-9 and TIMP-4 levels in a concentration-dependent way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results presented herein demonstrate that the non psychoactive phytocannabinoid CBD inhibits U87-MG and T98G cell invasion and proliferation, and shed light on the molecular mechanisms that drive its anti-tumoral action. The high rate of tumor cell invasiveness into normal brain tissue is a defined hallmark of gliomas and represents an important aspect accounting in large part for their poor prognosis. The ability of tumoral cells to invade the normal tissue is crucial for tumor spread, growth, and metastasis. Thus the ability of anticancer drugs to induce inhibition of cell invasion, besides apoptosis and/or cell growth arrest, is considered fundamental to the success of cancer therapy. Our results demonstrate that CBD effectively inhibited glioma cell invasion, though with different potency in the two different cell lineages considered, as tested by the matrigel Boyden assay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A second highlight of the present work is the evidence that active CBD concentrations produce a widespread inhibition of
+several proteins involved in cell growth and invasion in both cell lines. In U87-MG cells we found a sustained inhibition of MMP-9, TIMP-1, TIMP-4, uPA, SerpinE1-PAI-1 and VEGF. All these proteins are differently involved in malignancy, motility, invasion and angiogenesis. MMPs are fundamental proteases up-regulated in gliomas and strictly associated with the malignancy of these tumors [22]. Indeed they favour tumor cell motility, invasion and angiogenesis by degrading ECM and act as chemotactic signals [23]. Therefore, MMP-9 inhibition can represent part of the mechanism through which CBD efficiently slows down the invasive feature of U87-MG cells. In addition, we found inhibition of TIMP-1, a stromal factor with multiple functions, whose over expression correlates with aggressive clinical behavior of a spectrum of tumors, gliomas included. Even though Ramer’s work demostrated CBD-driven TIMP-1 upregulation and consequent decrease of invasion in cervical and lung cancer cells, this discrepancy is likely due to the different kind of tumor considered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These results suggest that CBD efficacy in inhibiting tumor growth and invasion proteins shows differences between the two considered cell lines, despite a similar potency in reducing cell viability. This may reside in the different genetic background of the two lines due to the different brain tumor subtype that they were isolated from. In fact, U87-MG cell line derives from glioblastoma/astrocytoma, whereas T98G from glioblastoma multiforme. Moreover U87-MG cells are well known to respond to cannabinoid treatment, whereas T98G cells have been so far considered resistant to cannabinoids, based on their insensitivity to D9-THC [36]. It is worth noting that CBD, differently from D9THC, seems to interfere with growth and invasion even in T98G cells. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gonçalves, J., Rosado, T., Soares, S., Simão, A., Caramelo, D., Luís, A., Fernández, N., Barroso, M., Gallardo, E., and Duarte, A.(2019). Cannabis and Its Secondary Metabolites: Their Use as Therapeutic Drugs, Toxicological Aspects, and Analytical Determination. </t>
     </r>
     <r>
       <rPr>
@@ -319,71 +646,132 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>this is police seizures)</t>
+      <t>Medicines</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBD-A is also gathering attention
-for its therapeutic potential, with evidence of anti-emetic [39] and anti-cancer properties [40]. </t>
-  </si>
-  <si>
-    <t>Beneﬁt of Tetrahydrocannabinol versus Cannabidiol for Common Palliative Care Symptoms</t>
-  </si>
-  <si>
-    <t>David J. Casarett, MD, MA,1 Jessica N. Beliveau, MPH,1 and Michelle S. Arbus, MBA2, JOURNAL OF PALLIATIVE MEDICINE Volume 22, Number 10, 2019 Mary Ann Liebert, Inc. DOI: 10.1089/jpm.2018.0658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-ratings of efﬁcacy of cannabis, deﬁned as a three-point reduction in neuropathic pain, anorexia, anxiety symptoms, depressive symptoms, insomnia, and post-traumatic ﬂashbacks. </t>
-  </si>
-  <si>
-    <t>Fact 2</t>
-  </si>
-  <si>
-    <t>Fact 3</t>
-  </si>
-  <si>
-    <t>Fact 4</t>
-  </si>
-  <si>
-    <t>Recent reviews and meta-analyses have pointed to beneﬁts for pain, nausea, anorexia, spasticity, and several other symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, there is inadequate evidence to guide clinicians and patients in choosing the optimal ratio of the two most common cannabinoids, tetrahydrocannabinol (THC) and cannabidiol (CBD). These molecules have different receptors, physiological effects, and potential medical beneﬁts. In
-particular, THC is associated with psychoactive effects such as euphoria, anxiety symptoms, paranoia, and hallucinations, whereas CBD is not. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data that deﬁne the relative contributions of THC and CBD to symptom management could be very useful in suggesting an optimal ratio for a given symptom. Speciﬁcally, such data could help patients and clinicians to identify those symptoms for which THC offers the greatest contribution. That, in turn, would make it possible to use higher THC:CBD ratiosonlyforthosesymptoms thatare mostTHCresponsive, avoiding unnecessary toxicity. </t>
-  </si>
-  <si>
-    <t>Fact 5</t>
-  </si>
-  <si>
-    <t>Fact 6</t>
-  </si>
-  <si>
-    <t>Fact 7</t>
-  </si>
-  <si>
-    <t>Fact 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And for anxiety symptoms, increases above a ratio of 1:1 were associated with reduced effectiveness. This inverted Ushaped curve seen for anxiety symptoms is not surprising. One well-recognized side effect of THC is anxiety symptoms, sometimes accompanied by paranoia. So it is reasonable that even if THC offers some symptom relief, higher ratios may have the opposite effect. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the ﬁnding that increasing THC:CBD ratios are associated with greater effectiveness for neuropathic pain is unexpected. There is increasing evidence that CBD offers beneﬁts in the treatment of neuropathic pain, and some suggestion that CBD-only formulations may be effective.9,</t>
-  </si>
-  <si>
-    <t>these results did not indicate that a higher THC:CBD ratio isassociated withgreater effectiveness inthe treatment of anorexia. This is also unexpected, because much of the evidence for the use of cannabis for this symptom comes from studies of either THC-dominant cannabis strains or synthetic THC (dronabinol).19–21 Those studies are generally consistent in demonstrating modest effectiveness. Therefore, the results reported here suggest that CBD may also have a role to play in the treatment of anorexia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We looked ﬁrst at the three symptoms for which an increasing THC:CBD ratio was signiﬁcantly associated with response (neuropathic pain, insomnia, and depressive symptoms). Of these, the largest relative increase was seen for neuropathic pain (from 19.3% to 51.3%), a greater than twofold change. There were substantial increases for insomnia as well (from 43.3% to 72.3%). The increases for depressive symptoms were more modest, but linear (from 49.4% to 63.1%). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 6(31). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Solinas, M., Massi, P., Cinquina, V., Valenti, M., Bolognini, D., et al. (2013). Cannabidiol, a Non-Psychoactive Cannabinoid Compound, Inhibits Proliferation and Invasion in U87-MG and T98G Glioma Cells through a Multitarget Effect. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLOS One,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8(10).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">De Filippis, D., Esposito, G., Cirillo, C., Cipriano, M., De Winter, B., et al. (2011). Cannabidiol Reduces Intestinal Inflammation through the Control of Neuroimmune Axis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PLOS One,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6(12).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esposito, G., Scuderi, C., Valenza, M., Togna, G., Latina, V., et al. (2011). Cannabidiol Reduces Ab-Induced Neuroinflammation and Promotes Hippocampal Neurogenesis through PPARc Involvement. PLOS One, 6(12).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Casarett, D., Beliveau, J., and Arbus, M.,(2019). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of Palliative Medicine, 22(10).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Swift, W., Wong, A., Li, K., Arnold, J., and McGregor, I. (2013). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis of Cannabis Seizures in NSW, Australia: Cannabis Potency and Cannabinoid Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. PLOS One, 8(7). </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +809,15 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F34BF-F1AB-44D3-9CA3-BE09FA4434C8}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,107 +1826,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD88711-2F41-4B31-9076-9977AF7B32DD}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="48" style="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="67.85546875" customWidth="1"/>
+    <col min="3" max="3" width="94.42578125" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" customWidth="1"/>
-    <col min="10" max="10" width="52.5703125" customWidth="1"/>
+    <col min="7" max="7" width="114.5703125" customWidth="1"/>
+    <col min="8" max="8" width="71.7109375" customWidth="1"/>
+    <col min="9" max="9" width="71.85546875" customWidth="1"/>
+    <col min="10" max="10" width="99.140625" customWidth="1"/>
+    <col min="11" max="11" width="81.42578125" customWidth="1"/>
+    <col min="12" max="12" width="61.5703125" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" customWidth="1"/>
+    <col min="14" max="14" width="73.140625" customWidth="1"/>
+    <col min="15" max="15" width="41" customWidth="1"/>
+    <col min="16" max="16" width="78.7109375" customWidth="1"/>
+    <col min="17" max="17" width="72.85546875" customWidth="1"/>
+    <col min="18" max="18" width="90.7109375" customWidth="1"/>
+    <col min="19" max="19" width="62.5703125" customWidth="1"/>
+    <col min="20" max="20" width="75.7109375" customWidth="1"/>
+    <col min="21" max="21" width="98.28515625" customWidth="1"/>
+    <col min="22" max="22" width="73.28515625" customWidth="1"/>
+    <col min="23" max="23" width="68.140625" customWidth="1"/>
+    <col min="24" max="24" width="96" customWidth="1"/>
+    <col min="25" max="25" width="88.85546875" customWidth="1"/>
+    <col min="26" max="26" width="87.28515625" customWidth="1"/>
+    <col min="27" max="27" width="90.5703125" customWidth="1"/>
+    <col min="28" max="28" width="81.28515625" customWidth="1"/>
+    <col min="29" max="29" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+    </row>
+    <row r="3" spans="1:29" s="17" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="17" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="17" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="17" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC6" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="17" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>109</v>
-      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+    </row>
+    <row r="8" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC10">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CBD_GEO_data_and_articles.xlsx
+++ b/CBD_GEO_data_and_articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069E40C-05CD-4695-9051-97587A6481B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24428F6B-4252-4A88-ADF1-666CEC454EFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="GEO_datasets" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="237">
   <si>
     <t>Public on Apr 17, 2015</t>
   </si>
@@ -765,6 +765,149 @@
       </rPr>
       <t xml:space="preserve">. PLOS One, 8(7). </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannabidiol exerts sebostatic and antiinflammatory effects on human sebocytes </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oláh, A, Tóth, B., Borbíró, I., Sugawara, K., Szöllõsi, A., Czifra, G., Pál, B.,  Ambrus, L., Kloepper, J., Camera, E., Ludovici, M., Picardo, M., Voets, T., Zouboulis, C., Paus, R., and Bíró, T. (2014). Cannabidiol exerts sebostatic and antiinflammatory effects on human sebocytes. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of Clinical Investigation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 124(9).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the report attached to GSE57571 on sebum and CBD, with the information on how and what each of these five samples are that have negative values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Investigations over the last two decades have confirmed unambiguously that the human body expresses such receptors, which are able to specifically bind and recognize characteristic terpene-phenol compounds of the infamous plant Cannabis sativa, collectively referred to as phytocannabinoids. These receptors, their endogenous ligands (the endocannabinoids [eCBs]), and the enzymes involved in the synthesis and degradation of the eCBs collectively constitute the eCB system (ECS), a complex intercellular signaling network markedly involved in the regulation of various physiological processes (3–6). </t>
+  </si>
+  <si>
+    <t>. Indeed, we have shown previously that the skin ECS regulates cutaneous cell growth and differentiation (9, 10), and it reportedly exerts antiinflammatory effects (11). Of further importance, we have 
+also demonstrated that the ECS plays a key role in the regulation of sebum production (12). According to our recent findings, prototypic eCBs, such as N-arachidonoyl ethanolamide (anandamide [AEA]) and 2-arachidonoylglycerol, are constitutively produced in human sebaceous glands.</t>
+  </si>
+  <si>
+    <t>Cannabidiol (CBD) is the most studied nonpsychotropic phytocannabinoid (13–15). It has already been applied in clinical practice without any significant side effects (Sativex) (16), and numerous ongoing phase II and III trials intend to explore its further therapeutic potential (17). Hence, within the confines of the current study, we intended to reveal the biological actions of CBD on the human sebaceous gland. Since we lack adequate animal models (18), we used human immortalized SZ95 sebocytes, the best available cellular system (19), and the full-thickness human skin organ culture (hSOC) technique (20). G8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also tested its effect on actions of other lipogenic substances, which were shown previously to act through different, ECS-independent signal transduction mechanisms. Indeed, CBD effectively inhibited lipid synthesis induced by either arachidonic acid (AA) (21) or the combination of linoleic acid and testosterone (LA-T) (ref. 22 and Figure 1F), indicating that the effect of CBD is not “ECS specific” but a “universal” lipostatic action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also investigated the effects of CBD on the lipidome of SZ95 sebocytes under in vitro conditions that mimicked “acnelike” circumstances (the latter was achieved by using a key “proacne” inflammatory mediator, AA) (1, 2, 21, 24–26). Importantly, CBD almost completely normalized the AA-enhanced “pathological” lipogenesis of SZ95 sebocytes (Figure 1G). This suggests that CBD may primarily normalize both quantitatively and qualitatively excessive and abnormal lipid production induced by acne-promoting stimuli. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBD decreases proliferation, but not the viability, of human sebocytes both in vitro and ex vivo. Besides the above lipostatic action, another desired effect of a proper anti-acne agent would be to inhibit the unwanted growth of sebocytes (2, 27, 28). Of great importance, proliferation of SZ95 sebocytes was significantly reduced in the presence of CBD (1–10 μM) (Figure 2A). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notably, administration of 50 μM CBD evoked apoptosis-driven cytotoxicity and, hence, led to decreased lipogenesis (Supplemental Figure 2, A–C). Likewise, elongated application of 10 μM CBD (6-day treatments) also decreased cell number and lipogenesis (Supplemental Figure 2, D and E). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinically, the key question is whether the above in vitro observations could be translated into significant sebostatic (i.e., lipostatic and antiproliferative) effects of CBD on human sebaceous glands in situ. To explore this on the preclinical level, the full-thickness hSOC technique (20) was used. These hSOC assays, which mimic the human sebaceous gland function in vivo as closely as this is currently possible on the ex vivo level, clearly demonstrated that application of CBD completely prevented the lipogenic action of AEA in situ and, in line with our long-term in vitro observations (Supplemental Figure 2E), decreased basal lipogenesis as well </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in order to confirm the putative universal antiinflammatory action of the CBD on human sebocytes, we next assessed its effects by modeling both Gram-negative infections (applying the TLR4 activator LPS) and Gram-positive infections (using the TLR2 activator lipoteichoic acid [LTA]). We found that CBD completely prevented the above treatments from elevating TNFA expression (Figure 3). Moreover, CBD also normalized LPS-induced IL1B and IL6 expression (Figure 3B) (expression of these 2 cytokines was found not to be modulated by 24-hour LA-T or LTA treatment; data not shown). Taken together, these results strongly suggest that CBD’s universal sebostatic action is accompanied by substantial antiinflammatory effects, which would be very much desired in the clinical treatment of acne vulgaris (1, 2, 24–30). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is well known that various cannabinoids can modulate the activity of certain transient receptor potential (TRP) channels, collectively referred to as “ionotropic cannabinoid receptors” (32–37). Moreover, we have shown recently that activation of TRP vanilloid-1 (TRPV1) on SZ95 sebocytes by capsaicin also exerts potent lipostatic actions (38). Therefore, we first systematically explored these candidate “CBD targets.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, we studied the effects of CBD on the ionic currents of SZ95 sebocytes. Using whole-cell patch-clamp configurations, membrane currents were elicited by voltage ramp protocols (Figure 4, A and B) and then normalized to cell membrane capacitance at two different potentials, i.e., at –90 and +90 mV (Figure 4C). CBD (10 μM) induced a mostly outwardly rectifying current and a positive shift in the reversal potential, arguing for the activation of certain cation channels upon CBD application. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found that SZ95 sebocytes express TRPV1, TRPV2, and TRPV4 both at the mRNA and protein levels (Supplemental Figure 4, A–C). Among these TRP channels, TRPV4 showed the highest mRNA levels by far (expression of TRPA1 and TRPM8 was below the detection limit; data not shown). </t>
+  </si>
+  <si>
+    <t>Since the 3 identified TRPs are nonselective cation channels that are most permeable to Ca2+ (39), we studied the effects of CBD on the calcium homeostasis of the sebocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> we found that CBD significantly increased the intracellular calcium concentration ([Ca2+]IC) of SZ95 sebocytes (Figure 5, A and B). This action was equally antagonized by (a) the decrease of the extracellular Ca2+ concentration ([Ca2+]EC); (b) the nonspecific TRP channel blocker ruthenium red; and, of great importance, (c) the TRPV4-specific antagonist HC067047 (HC) (Figure 5, A and B). We have also shown that the suppression of [Ca2+]EC or the coapplication of HC also prevented the lipostatic action of CBD (Figure 5C); notably, the TRPV4 antagonist alone did not affect basal lipid synthesis (Supplemental Figure 5). </t>
+  </si>
+  <si>
+    <t>To further confirm the functional expression of TRPV4 on human sebocytes, the TRPV4-specific ultrapotent agonist GSK1016790A (GSK) was applied. The agonist evoked membrane currents, which were prevented by the specific TRPV4 antagonist HC (Supplemental Figure 6, A and B), indicating that TRPV4 channels are indeed functionally expressed in human sebocytes. Moreover, GSK mimicked both the CBD-induced [Ca2+]IC elevations (Supplemental Figure 6, C and D) and CBD’s lipostatic actions (Figure 5C). Since the CBD-evoked lipostatic effects and the induced Ca2+ signals were not influenced by the TRPV1-specific antagonists, capsazepine (Supplemental Figure 7, A–C) or AMG 9810 (data not shown), these electrophysiological, Ca2+-imaging and cellular physiology data collectively argued for the selective involvement of TRPV4 (but not of TRPV1) in mediating the effects of CBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To further validate this concept, knockdown of TRPV1, TRPV2, and TRPV4 by RNA interference (RNAi) was used (quantitative “real-time” PCR [Q-PCR] and Western blot analyses verified the successful silencing of the targeted TRPVs; Supplemental Figure 8, A–F). We showed that neither TRPV1 nor TRPV2 silencing significantly influenced the lipostatic action of CBD (Supplemental Figure 9, A and B). In contrast, TRPV4-specific “knockdown” was able to prevent this effect of CBD (Figure 5D) as well as the increase of [Ca2+]IC (Supplemental Figure 10) and the lipid-lowering action of the TRPV4-specific activator GSK (Figure 5E). Collectively, these data unambiguously confirm that CBD activates TRPV4 and that this ion channel selectively mediates its lipostatic action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interestingly, we also showed that, similar to the lipostatic action, antagonism of TRPV4 was able to significantly prevent the antiproliferative effect of CBD (Figure 6A). However, quite surprisingly, antiinflammatory actions of CBD were not affected by the antagonist (Figure 6B); these latter findings suggested that these antiinflammatory actions might be a TRPV4-independent process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebostatic action of CBD is mediated by TRPV4-dependent interference with the ERK1/2 MAPK pathway and downregulation of nuclear receptor interacting protein-1. To dissect the intracellular signaling pathways that underlie the above effects, we first investigated the putative participation of several kinases (i.e., PKC isoforms, PI3K, PKA) as well as calcineurin in mediating the lipostatic effects of CBD. Notably, inhibition of activities of these molecules had no effect on the lipostatic activity of CBD (Supplemental Figure 11, A and B). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, in order to identify target genes and pathways regulated (directly or indirectly) by CBD, genome-wide microarray analyses were performed on 3 independent sets of control and CBD-treated SZ95 sebocytes (10 μM CBD for 24 hours). Gene set enrichment analysis (GSEA) (40–42) of the microarray results revealed that numerous mitosis and cell cycle (e.g., “mitosis,” “G2/M transition,” “cell cycle,” etc.), inflammation (e.g., “cytokine production,” “cytokine biosynthetic process,” “TLR9 pathway,” “positive regulation of IκB kinase NF-κB cascade,” etc.), and lipid synthesis–related (“acyltransferase activity,” “lipid biosynthetic process,” “positive regulation of MAPK activity,” etc.) gene sets were identified among the downregulated ones, confirming our previous findings on the complex anti-acne effects of CBD. Moreover, downregulation of some “acne-related” gene sets (e.g., “IGF-1 pathway” and “mTOR pathway”) (2, 43) also argued for the putative in vivo anti-acne efficiency of CBD. Further, upregulation of the “calcium signaling pathway” gene set confirmed the involvement of (TRPV4-dependent) calcium signaling (detailed results of GSEA are available in Supplemental Excel files 1 and 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we still aimed to recognize target genes that might be involved in mediating the different anti-acne modalities and/ or might further strengthen the putative in vivo efficiency of CBD. Therefore, using rigid exclusion criteria (at least 2-fold changes in the corresponding expression levels equidirectional changes in all cases, and global, corrected 
+ P &lt; 0.05), we found that 80 genes were significantly downregulated, whereas 72 genes were significantly upregulated by CBD treatment (microarray results are accessible through GEO series accession number GSE57571; downregulated and upregulated genes, together with their averaged fold changes, are summarized in Supplemental Tables 1 
+ and 2). </t>
+  </si>
+  <si>
+    <t>By using Q-PCR, we have confirmed that, following CBD treatment, expression of Rho GTPase-activating protein 9 (ARHGAP9, an endogenous inhibitor of the prolipogenic ERK signaling) (46) was upregulated, whereas the proliferation marker MKI67 was downregulated (Figure 6C). (This latter result perfectly confirmed our findings obtained in hSOC experiments [Figure 2I].) Moreover, also in line with our previous findings, we found that TRPV4 antagonism could successfully prevent both alterations (Figure 6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is well known that activation of the ERK1/2 MAPK pathway plays a crucial role in the regulation of cellular proliferation (47). Furthermore, we have demonstrated recently that this pathway is involved in mediating the “prolipogenic” action of AEA on human sebocytes (12). Considering that administration of CBD led to opposing cellular effects (i.e., decreased lipogenesis and proliferation) and upregulation the ERK inhibitor ARHGAP9, we hypothesized that CBD might inhibit MAPK activation. Indeed, AEA treatment was able to activate the ERK1/2 MAPK cascade (as monitored by assessing the level of phosphorylated ERK1/2 [P-ERK1/2]), an effect that was completely abrogated by the coadministration of CBD (Figure 7A). In a perfect agreement with our previous data (Figure 5, C–E, and Figure 6, A and C), this interference was found to be TRPV4 dependent, since the specific antagonist HC was able to fully prevent the effect of CBD (Figure 7A). This, again, confirmed the crucial role of TRPV4 activation in initiating the lipostatic and antiproliferative signaling cascade(s) of CBD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have also demonstrated that expression of nuclear receptor interacting protein-1 (NRIP1, also known as RIP140; a corepressor essential for triglyceride storage in adipose tissue) (48) was downregulated in a TRPV4-dependent manner (Figure 6C). We have shown that silencing of NRIP1 (validated by Q-PCR and Western blotting; Supplemental Figure 14, A and B) mimicked the lipostatic effect of CBD (Figure 7B), suggesting that downregulation of NRIP1 is indeed an important final effector of the lipid synthesis-inhibitory activity of CBD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiinflammatory action of CBD is mediated by upregulation of tribbles homolog 3 and inhibition of the NF-κB pathway. Our microarray data have also highlighted the putative involvement of several innate immunity/inflammation-related genes in mediating the antiinflammatory action of CBD (Supplemental Tables 1 and 2). By using Q-PCR, we confirmed that expression of LL-37 cathelicidin (a key antimicrobial peptide expressed by and shown to be active in human sebocytes) (49) and tribbles homolog 3 (TRIB3, also known as SINK; a negative regulator of proinflammatory NF-κB signaling) (50) was upregulated by CBD. Importantly (again, in line with our previous results [Figure 6B]), these CBD-induced gene expression changes were not prevented by the coadministration of the TRPV4 antagonist HC (Figure 6C). When assessing the functional role of TRIB3, we found that, after its selective silencing (Supplemental Figure 15, A and B), CBD was unable to exert its antiinflammatory action to prevent LPS-induced IL1B and IL6 upregulation (Figure 8A); in contrast, its lipostatic activity was not altered (Supplemental Figure 15C). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIB3 is known to inhibit the NF-κB pathway (50), and, furthermore, CBD has already been reported to exert its antiinflammatory actions via inhibition of the NF-κB signaling (51). Importantly, we found that CBD cotreatment indeed prevented the LPS-induced phosphorylation (hence inactivation) of the inhibitory IκBα and phosphorylation (hence activation) of the p65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These data indicate that, irrespective of the investigated cell type, interference with the NF-κB pathway could be an important mechanism in the development of the antiinflammatory actions of CBD. It should also be noted that TRPV4 antagonism exerted only negligible effects on the action of CBD (Figure 8B), again confirming that antiinflammatory activity of CBD is a TRPV4-independent process. </t>
+  </si>
+  <si>
+    <t>CBD induces a novel (A2a adenosine receptor→cAMP→ TRIB3⊣NF-κB) antiinflammatory pathway. Finally, we aimed at identifying the target molecule of CBD, which, via the upregulation of TRIB3, mediates the antiinflammatory action of the phytocannabinoid. Since previous data suggested that elevation of the intracellular cAMP level is one of the possible inducers of TRIB3 activation/upregulation (52), we have investigated the effects of CBD on the cAMP level. CBD treatment indeed elevated the intracellular cAMP concentration of the sebocytes (Figure 8C), arguing that a Gs protein–coupled receptor might be the primary target of CBD. A previous finding that, in a murine model of acute lung injury, the Gs protein–coupled A2a adenosine receptor was found to mediate the antiinflammatory actions of CBD (53) made this receptor a very probable target in our system as well. Indeed, we found that the A2a receptor was expressed by human sebocytes both at the mRNA and protein levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, we have also shown that application of a specific A2a receptor antagonist, ZM241385 (ZM), was able to significantly prevent the upregulation of TRIB3 by CBD (Figure 8D). Moreover, ZM also suppressed the antiinflammatory effect of the phytocannabinoid as well as the CBD-evoked inhibition of LPS-induced NF-κB activation (Figure 8, E and F). These intriguing findings collectively argued that activation of the “A2a receptor→cAMP→TRIB3⊣NF-κB” axis indeed plays a crucial role in mediating the antiinflammatory actions of CBD. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreover, it is very important to note that, besides the systemic application, one should keep in mind the possibility of the topical administration. Although the levels of CBD seen in the plasma of patients receiving Sativex are below (73) the CBD doses (= lower micromolar range) that exerted the most robust effects in our studies, such doses could easily be achieved after topical CBD application, using appropriate vehicles already used in current standard acne management. Due to its high lipophilicity, CBD is expected to preferentially enter the skin via the transfollicular route and to accumulate in the sebaceous gland </t>
+  </si>
+  <si>
+    <t>Fact 28</t>
+  </si>
+  <si>
+    <t>Fact 29</t>
+  </si>
+  <si>
+    <t>Fact 30</t>
+  </si>
+  <si>
+    <t>Fact 31</t>
+  </si>
+  <si>
+    <t>Fact 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-thickness hSOC and sample preparations. Biopsies of intact human scalp and arm skin samples were obtained from 4 women (20). Lipid production and cellular proliferation were determined by using Oil Red O staining and MKI67 labeling. Images were analyzed by ImageJ image analysis software (NIH). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microarray analysis. Gene expression analysis of 3 independent sets of control and CBD-treated SZ95 sebocytes (10 μM CBD for 24 hours) was performed by using Human Whole Genome Oligo Microarray (44K) (Agilent Technologies). Alterations in the gene expression were regarded as significant if (a) there were at least 2-fold changes in the corresponding levels; (b) the changes were equidirectional in all cases; and (c) global, corrected P values were less than 0.05. Evaluation, GSEA, and Gene Ontology analysis (BiNGO) of the results were performed by Abiomics Ltd. (http://www.abiomics.eu). Data have been deposited in the NCBI Gene Expression Omnibus (79) and are accessible through GEO series accession number GSE57571 (http:// www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57571). </t>
   </si>
 </sst>
 </file>
@@ -905,7 +1048,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -974,6 +1116,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F34BF-F1AB-44D3-9CA3-BE09FA4434C8}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,57 +1447,57 @@
     <col min="2" max="2" width="56.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="60.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="78.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="47.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="30"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="31"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1363,23 +1508,23 @@
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1387,22 +1532,22 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1410,70 +1555,70 @@
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1484,21 +1629,21 @@
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1509,23 +1654,23 @@
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1536,23 +1681,23 @@
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1563,23 +1708,23 @@
       <c r="B11" s="12">
         <v>41786</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="3">
         <v>41771</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1590,48 +1735,48 @@
       <c r="B12" s="12">
         <v>43307</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="5">
         <v>43153</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -1640,23 +1785,23 @@
       <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
@@ -1665,19 +1810,19 @@
       <c r="B15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1688,23 +1833,23 @@
       <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="40" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1715,23 +1860,23 @@
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="40" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1742,72 +1887,72 @@
       <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1826,11 +1971,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD88711-2F41-4B31-9076-9977AF7B32DD}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,375 +2009,395 @@
     <col min="27" max="27" width="90.5703125" customWidth="1"/>
     <col min="28" max="28" width="81.28515625" customWidth="1"/>
     <col min="29" max="29" width="59.28515625" customWidth="1"/>
+    <col min="30" max="30" width="47.7109375" customWidth="1"/>
+    <col min="31" max="31" width="50.28515625" customWidth="1"/>
+    <col min="32" max="32" width="48.85546875" customWidth="1"/>
+    <col min="33" max="33" width="39.5703125" customWidth="1"/>
+    <col min="34" max="34" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:34" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="39" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="AD1" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF1" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH1" s="39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-    </row>
-    <row r="3" spans="1:29" s="17" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+    </row>
+    <row r="3" spans="1:34" s="16" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="17" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:34" s="16" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="17" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:34" s="16" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="17" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:34" s="16" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="Y6" s="39" t="s">
+      <c r="Y6" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" s="39" t="s">
+      <c r="Z6" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AA6" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AB6" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AC6" s="39" t="s">
+      <c r="AC6" s="38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="17" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:34" s="16" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -2257,14 +2422,115 @@
       <c r="AB7"/>
       <c r="AC7"/>
     </row>
-    <row r="8" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:29" s="17" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+    <row r="8" spans="1:34" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="X8" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z8" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA8" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB8" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE8" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG8" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH8" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:34" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC10">

--- a/CBD_GEO_data_and_articles.xlsx
+++ b/CBD_GEO_data_and_articles.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24428F6B-4252-4A88-ADF1-666CEC454EFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D571D-F0BB-4655-9412-97AF60ECF208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="GEO_datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="ArticlesCBD" sheetId="2" r:id="rId2"/>
+    <sheet name="genes" sheetId="3" r:id="rId2"/>
+    <sheet name="ArticlesCBD" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="340">
   <si>
     <t>Public on Apr 17, 2015</t>
   </si>
@@ -909,12 +910,321 @@
   <si>
     <t xml:space="preserve">Microarray analysis. Gene expression analysis of 3 independent sets of control and CBD-treated SZ95 sebocytes (10 μM CBD for 24 hours) was performed by using Human Whole Genome Oligo Microarray (44K) (Agilent Technologies). Alterations in the gene expression were regarded as significant if (a) there were at least 2-fold changes in the corresponding levels; (b) the changes were equidirectional in all cases; and (c) global, corrected P values were less than 0.05. Evaluation, GSEA, and Gene Ontology analysis (BiNGO) of the results were performed by Abiomics Ltd. (http://www.abiomics.eu). Data have been deposited in the NCBI Gene Expression Omnibus (79) and are accessible through GEO series accession number GSE57571 (http:// www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE57571). </t>
   </si>
+  <si>
+    <t>ESRRG</t>
+  </si>
+  <si>
+    <t>estrogen related receptor gamma</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Gene_Name</t>
+  </si>
+  <si>
+    <t>Gene_Summary</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the estrogen receptor-related receptor (ESRR) family, which belongs to the nuclear hormone receptor superfamily. All members of the ESRR family share an almost identical DNA binding domain, which is composed of two C4-type zinc finger motifs. The ESRR members are orphan nuclear receptors; they bind to the estrogen response element and steroidogenic factor 1 response element, and activate genes controlled by both response elements in the absence of any ligands. The ESRR family is closely related to the estrogen receptor (ER) family. They share target genes, co-regulators and promoters, and by targeting the same set of genes, the ESRRs seem to interfere with the ER-mediated estrogen response in various ways. It has been reported that the family member encoded by this gene functions as a transcriptional activator of DNA cytosine-5-methyltransferases 1 (Dnmt1) expression by direct binding to its response elements in the DNMT1 promoters, modulates cell proliferation and estrogen signaling in breast cancer, and negatively regulates bone morphogenetic protein 2-induced osteoblast differentiation and bone formation. Multiple alternatively spliced transcript variants have been identified, which mainly differ at the 5' end and some of which encode protein isoforms differing in the N-terminal region. [provided by RefSeq, Aug 2011]</t>
+  </si>
+  <si>
+    <t>SHBG</t>
+  </si>
+  <si>
+    <t>sex hormone binding globulin</t>
+  </si>
+  <si>
+    <t>This gene encodes a steroid binding protein that was first described as a plasma protein secreted by the liver but is now thought to participate in the regulation of steroid responses. The encoded protein transports androgens and estrogens in the blood, binding each steroid molecule as a dimer formed from identical or nearly identical monomers. Polymorphisms in this gene have been associated with polycystic ovary syndrome and type 2 diabetes mellitus. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Jan 2014]</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>progesterone receptor</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the steroid receptor superfamily. The encoded protein mediates the physiological effects of progesterone, which plays a central role in reproductive events associated with the establishment and maintenance of pregnancy. This gene uses two distinct promotors and translation start sites in the first exon to produce several transcript variants, both protein coding and non-protein coding. Two of the isoforms (A and B) are identical except for an additional 165 amino acids found in the N-terminus of isoform B and mediate their own response genes and physiologic effects with little overlap. [provided by RefSeq, Sep 2015]</t>
+  </si>
+  <si>
+    <t>CNR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannabinoid receptor 1 </t>
+  </si>
+  <si>
+    <t>This gene encodes one of two cannabinoid receptors. The cannabinoids, principally delta-9-tetrahydrocannabinol and synthetic analogs, are psychoactive ingredients of marijuana. The cannabinoid receptors are members of the guanine-nucleotide-binding protein (G-protein) coupled receptor family, which inhibit adenylate cyclase activity in a dose-dependent, stereoselective and pertussis toxin-sensitive manner. The two receptors have been found to be involved in the cannabinoid-induced CNS effects (including alterations in mood and cognition) experienced by users of marijuana. Multiple transcript variants encoding two different protein isoforms have been described for this gene. [provided by RefSeq, May 2009]</t>
+  </si>
+  <si>
+    <t>CNR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannabinoid receptor 2 </t>
+  </si>
+  <si>
+    <t>The cannabinoid delta-9-tetrahydrocannabinol is the principal psychoactive ingredient of marijuana. The proteins encoded by this gene and the cannabinoid receptor 1 (brain) (CNR1) gene have the characteristics of a guanine nucleotide-binding protein (G-protein)-coupled receptor for cannabinoids. They inhibit adenylate cyclase activity in a dose-dependent, stereoselective, and pertussis toxin-sensitive manner. These proteins have been found to be involved in the cannabinoid-induced CNS effects (including alterations in mood and cognition) experienced by users of marijuana. The cannabinoid receptors are members of family 1 of the G-protein-coupled receptors. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>CNRIP1</t>
+  </si>
+  <si>
+    <t>cannabinoid receptor interacting protein 1</t>
+  </si>
+  <si>
+    <t>This gene encodes a protein that interacts with the C-terminal tail of cannabinoid receptor 1. Two transcript variants encoding different isoforms have been described for this gene. [provided by RefSeq, Jul 2013]</t>
+  </si>
+  <si>
+    <t>TGFB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transforming growth factor beta 1 </t>
+  </si>
+  <si>
+    <t>This gene encodes a secreted ligand of the TGF-beta (transforming growth factor-beta) superfamily of proteins. Ligands of this family bind various TGF-beta receptors leading to recruitment and activation of SMAD family transcription factors that regulate gene expression. The encoded preproprotein is proteolytically processed to generate a latency-associated peptide (LAP) and a mature peptide, and is found in either a latent form composed of a mature peptide homodimer, a LAP homodimer, and a latent TGF-beta binding protein, or in an active form consisting solely of the mature peptide homodimer. The mature peptide may also form heterodimers with other TGFB family members. This encoded protein regulates cell proliferation, differentiation and growth, and can modulate expression and activation of other growth factors including interferon gamma and tumor necrosis factor alpha. This gene is frequently upregulated in tumor cells, and mutations in this gene result in Camurati-Engelmann disease. [provided by RefSeq, Aug 2016]</t>
+  </si>
+  <si>
+    <t>IFNG</t>
+  </si>
+  <si>
+    <t>interferon gamma</t>
+  </si>
+  <si>
+    <t>This gene encodes a soluble cytokine that is a member of the type II interferon class. The encoded protein is secreted by cells of both the innate and adaptive immune systems. The active protein is a homodimer that binds to the interferon gamma receptor which triggers a cellular response to viral and microbial infections. Mutations in this gene are associated with an increased susceptibility to viral, bacterial and parasitic infections and to several autoimmune diseases. [provided by RefSeq, Dec 2015]</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>tumor necrosis factor</t>
+  </si>
+  <si>
+    <t>This gene encodes a multifunctional proinflammatory cytokine that belongs to the tumor necrosis factor (TNF) superfamily. This cytokine is mainly secreted by macrophages. It can bind to, and thus functions through its receptors TNFRSF1A/TNFR1 and TNFRSF1B/TNFBR. This cytokine is involved in the regulation of a wide spectrum of biological processes including cell proliferation, differentiation, apoptosis, lipid metabolism, and coagulation. This cytokine has been implicated in a variety of diseases, including autoimmune diseases, insulin resistance, and cancer. Knockout studies in mice also suggested the neuroprotective function of this cytokine. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>IL10</t>
+  </si>
+  <si>
+    <t>interleukin 10</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a cytokine produced primarily by monocytes and to a lesser extent by lymphocytes. This cytokine has pleiotropic effects in immunoregulation and inflammation. It down-regulates the expression of Th1 cytokines, MHC class II Ags, and costimulatory molecules on macrophages. It also enhances B cell survival, proliferation, and antibody production. This cytokine can block NF-kappa B activity, and is involved in the regulation of the JAK-STAT signaling pathway. Knockout studies in mice suggested the function of this cytokine as an essential immunoregulator in the intestinal tract. Mutations in this gene are associated with an increased susceptibility to HIV-1 infection and rheumatoid arthritis.[provided by RefSeq, May 2011]</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>interleukin 6</t>
+  </si>
+  <si>
+    <t>This gene encodes a cytokine that functions in inflammation and the maturation of B cells. In addition, the encoded protein has been shown to be an endogenous pyrogen capable of inducing fever in people with autoimmune diseases or infections. The protein is primarily produced at sites of acute and chronic inflammation, where it is secreted into the serum and induces a transcriptional inflammatory response through interleukin 6 receptor, alpha. The functioning of this gene is implicated in a wide variety of inflammation-associated disease states, including suspectibility to diabetes mellitus and systemic juvenile rheumatoid arthritis. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Dec 2015]</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interleukin 1 beta </t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a member of the interleukin 1 cytokine family. This cytokine is produced by activated macrophages as a proprotein, which is proteolytically processed to its active form by caspase 1 (CASP1/ICE). This cytokine is an important mediator of the inflammatory response, and is involved in a variety of cellular activities, including cell proliferation, differentiation, and apoptosis. The induction of cyclooxygenase-2 (PTGS2/COX2) by this cytokine in the central nervous system (CNS) is found to contribute to inflammatory pain hypersensitivity. This gene and eight other interleukin 1 family genes form a cytokine gene cluster on chromosome 2. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>PTGS2</t>
+  </si>
+  <si>
+    <t>IL17A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interleukin 17A</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a proinflammatory cytokine produced by activated T cells. This cytokine regulates the activities of NF-kappaB and mitogen-activated protein kinases. This cytokine can stimulate the expression of IL6 and cyclooxygenase-2 (PTGS2/COX-2), as well as enhance the production of nitric oxide (NO). High levels of this cytokine are associated with several chronic inflammatory diseases including rheumatoid arthritis, psoriasis and multiple sclerosis. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>prostaglandin-endoperoxide synthase 2</t>
+  </si>
+  <si>
+    <t>Prostaglandin-endoperoxide synthase (PTGS), also known as cyclooxygenase, is the key enzyme in prostaglandin biosynthesis, and acts both as a dioxygenase and as a peroxidase. There are two isozymes of PTGS: a constitutive PTGS1 and an inducible PTGS2, which differ in their regulation of expression and tissue distribution. This gene encodes the inducible isozyme. It is regulated by specific stimulatory events, suggesting that it is responsible for the prostanoid biosynthesis involved in inflammation and mitogenesis. [provided by RefSeq, Feb 2009]</t>
+  </si>
+  <si>
+    <t>S100B</t>
+  </si>
+  <si>
+    <t>S100 calcium binding protein B</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a member of the S100 family of proteins containing 2 EF-hand calcium-binding motifs. S100 proteins are localized in the cytoplasm and/or nucleus of a wide range of cells, and involved in the regulation of a number of cellular processes such as cell cycle progression and differentiation. S100 genes include at least 13 members which are located as a cluster on chromosome 1q21; however, this gene is located at 21q22.3. This protein may function in Neurite extension, proliferation of melanoma cells, stimulation of Ca2+ fluxes, inhibition of PKC-mediated phosphorylation, astrocytosis and axonal proliferation, and inhibition of microtubule assembly. Chromosomal rearrangements and altered expression of this gene have been implicated in several neurological, neoplastic, and other types of diseases, including Alzheimer's disease, Down's syndrome, epilepsy, amyotrophic lateral sclerosis, melanoma, and type I diabetes. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tumor protein p53</t>
+  </si>
+  <si>
+    <t>This gene encodes a tumor suppressor protein containing transcriptional activation, DNA binding, and oligomerization domains. The encoded protein responds to diverse cellular stresses to regulate expression of target genes, thereby inducing cell cycle arrest, apoptosis, senescence, DNA repair, or changes in metabolism. Mutations in this gene are associated with a variety of human cancers, including hereditary cancers such as Li-Fraumeni syndrome. Alternative splicing of this gene and the use of alternate promoters result in multiple transcript variants and isoforms. Additional isoforms have also been shown to result from the use of alternate translation initiation codons from identical transcript variants (PMIDs: 12032546, 20937277). [provided by RefSeq, Dec 2016]</t>
+  </si>
+  <si>
+    <t>PPAR</t>
+  </si>
+  <si>
+    <t>peroxisome proliferator activated receptor alpha</t>
+  </si>
+  <si>
+    <t>Peroxisome proliferators include hypolipidemic drugs, herbicides, leukotriene antagonists, and plasticizers; this term arises because they induce an increase in the size and number of peroxisomes. Peroxisomes are subcellular organelles found in plants and animals that contain enzymes for respiration and for cholesterol and lipid metabolism. The action of peroxisome proliferators is thought to be mediated via specific receptors, called PPARs, which belong to the steroid hormone receptor superfamily. PPARs affect the expression of target genes involved in cell proliferation, cell differentiation and in immune and inflammation responses. Three closely related subtypes (alpha, beta/delta, and gamma) have been identified. This gene encodes the subtype PPAR-alpha, which is a nuclear transcription factor. Multiple alternatively spliced transcript variants have been described for this gene, although the full-length nature of only two has been determined. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>SLC52A3</t>
+  </si>
+  <si>
+    <t>solute carrier family 52 member 3</t>
+  </si>
+  <si>
+    <t>This gene encodes a riboflavin transporter protein that is strongly expressed in the intestine and likely plays a role in intestinal absorption of riboflavin. The protein is predicted to have eleven transmembrane domains and a cell surface localization signal in the C-terminus. Mutations at this locus have been associated with Brown-Vialetto-Van Laere syndrome and Fazio-Londe disease. [provided by RefSeq, Mar 2012]</t>
+  </si>
+  <si>
+    <t>ICAM1</t>
+  </si>
+  <si>
+    <t>intercellular adhesion molecule 1</t>
+  </si>
+  <si>
+    <t>This gene encodes a cell surface glycoprotein which is typically expressed on endothelial cells and cells of the immune system. It binds to integrins of type CD11a / CD18, or CD11b / CD18 and is also exploited by Rhinovirus as a receptor. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>TRPV2</t>
+  </si>
+  <si>
+    <t>NRIP1</t>
+  </si>
+  <si>
+    <t>TRIB3</t>
+  </si>
+  <si>
+    <t>DCAF6</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a ligand-dependent coactivator of nuclear receptors, including nuclear receptor subfamily 3 group C member 1 (NR3C1), glucocorticoid receptor (GR), and androgen receptor (AR). The encoded protein and DNA damage binding protein 2 (DDB2) may act as tumor promoters and tumor suppressors, respectively, by regulating the level of androgen receptor in prostate tissues. In addition, this protein can act with glucocorticoid receptor to promote human papillomavirus gene expression. [provided by RefSeq, Mar 2017]</t>
+  </si>
+  <si>
+    <t>transient receptor potential cation channel subfamily V member 2</t>
+  </si>
+  <si>
+    <t>This gene encodes an ion channel that is activated by high temperatures above 52 degrees Celsius. The protein may be involved in transduction of high-temperature heat responses in sensory ganglia. It is thought that in other tissues the channel may be activated by stimuli other than heat. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>NR3C1</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear receptor subfamily 3 group C member 1 </t>
+  </si>
+  <si>
+    <t>This gene encodes glucocorticoid receptor, which can function both as a transcription factor that binds to glucocorticoid response elements in the promoters of glucocorticoid responsive genes to activate their transcription, and as a regulator of other transcription factors. This receptor is typically found in the cytoplasm, but upon ligand binding, is transported into the nucleus. It is involved in inflammatory responses, cellular proliferation, and differentiation in target tissues. Mutations in this gene are associated with generalized glucocorticoid resistance. Alternative splicing of this gene results in transcript variants encoding either the same or different isoforms. Additional isoforms resulting from the use of alternate in-frame translation initiation sites have also been described, and shown to be functional, displaying diverse cytoplasm-to-nucleus trafficking patterns and distinct transcriptional activities (PMID:15866175). [provided by RefSeq, Feb 2011]</t>
+  </si>
+  <si>
+    <t>TRAF1</t>
+  </si>
+  <si>
+    <t>TNF receptor associated factor 1</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a member of the TNF receptor (TNFR) associated factor (TRAF) protein family. TRAF proteins associate with, and mediate the signal transduction from various receptors of the TNFR superfamily. This protein and TRAF2 form a heterodimeric complex, which is required for TNF-alpha-mediated activation of MAPK8/JNK and NF-kappaB. The protein complex formed by this protein and TRAF2 also interacts with inhibitor-of-apoptosis proteins (IAPs), and thus mediates the anti-apoptotic signals from TNF receptors. The expression of this protein can be induced by Epstein-Barr virus (EBV). EBV infection membrane protein 1 (LMP1) is found to interact with this and other TRAF proteins; this interaction is thought to link LMP1-mediated B lymphocyte transformation to the signal transduction from TNFR family receptors. Three transcript variants encoding two different isoforms have been found for this gene. [provided by RefSeq, Jul 2010]</t>
+  </si>
+  <si>
+    <t>ESR1</t>
+  </si>
+  <si>
+    <t>estrogen receptor 1</t>
+  </si>
+  <si>
+    <t>This gene encodes an estrogen receptor, a ligand-activated transcription factor composed of several domains important for hormone binding, DNA binding, and activation of transcription. The protein localizes to the nucleus where it may form a homodimer or a heterodimer with estrogen receptor 2. Estrogen and its receptors are essential for sexual development and reproductive function, but also play a role in other tissues such as bone. Estrogen receptors are also involved in pathological processes including breast cancer, endometrial cancer, and osteoporosis. Alternative promoter usage and alternative splicing result in dozens of transcript variants, but the full-length nature of many of these variants has not been determined. [provided by RefSeq, Mar 2014]</t>
+  </si>
+  <si>
+    <t>ESR2</t>
+  </si>
+  <si>
+    <t>estrogen receptor 2</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the family of estrogen receptors and superfamily of nuclear receptor transcription factors. The gene product contains an N-terminal DNA binding domain and C-terminal ligand binding domain and is localized to the nucleus, cytoplasm, and mitochondria. Upon binding to 17beta-estradiol or related ligands, the encoded protein forms homo- or hetero-dimers that interact with specific DNA sequences to activate transcription. Some isoforms dominantly inhibit the activity of other estrogen receptor family members. Several alternatively spliced transcript variants of this gene have been described, but the full-length nature of some of these variants has not been fully characterized. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>androgen receptor</t>
+  </si>
+  <si>
+    <t>The androgen receptor gene is more than 90 kb long and codes for a protein that has 3 major functional domains: the N-terminal domain, DNA-binding domain, and androgen-binding domain. The protein functions as a steroid-hormone activated transcription factor. Upon binding the hormone ligand, the receptor dissociates from accessory proteins, translocates into the nucleus, dimerizes, and then stimulates transcription of androgen responsive genes. This gene contains 2 polymorphic trinucleotide repeat segments that encode polyglutamine and polyglycine tracts in the N-terminal transactivation domain of its protein. Expansion of the polyglutamine tract from the normal 9-34 repeats to the pathogenic 38-62 repeats causes spinal bulbar muscular atrophy (SBMA, also known as Kennedy's disease). Mutations in this gene are also associated with complete androgen insensitivity (CAIS). Alternative splicing results in multiple transcript variants encoding different isoforms. [provided by RefSeq, Jan 2017]</t>
+  </si>
+  <si>
+    <t>glutathione reductase</t>
+  </si>
+  <si>
+    <t>Encodes glutathione reductase that is most likely localized in the chloroplast.</t>
+  </si>
+  <si>
+    <t>nuclear receptor interacting protein 1</t>
+  </si>
+  <si>
+    <t>Nuclear receptor interacting protein 1 (NRIP1) is a nuclear protein that specifically interacts with the hormone-dependent activation domain AF2 of nuclear receptors. Also known as RIP140, this protein modulates transcriptional activity of the estrogen receptor. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>tribbles pseudokinase 3</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a putative protein kinase that is induced by the transcription factor NF-kappaB. The encoded protein is a negative regulator of NF-kappaB and can also sensitize cells to TNF- and TRAIL-induced apoptosis. In addition, this protein can negatively regulate the cell survival serine-threonine kinase AKT1. Differential promoter usage and alternate splicing result in multiple transcript variants. [provided by RefSeq, Jul 2014]</t>
+  </si>
+  <si>
+    <t>#https://www.ncbi.nlm.nih.gov/gene/</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
+    <t>NFKB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear factor kappa B subunit 1 </t>
+  </si>
+  <si>
+    <t>This gene encodes a 105 kD protein which can undergo cotranslational processing by the 26S proteasome to produce a 50 kD protein. The 105 kD protein is a Rel protein-specific transcription inhibitor and the 50 kD protein is a DNA binding subunit of the NF-kappa-B (NFKB) protein complex. NFKB is a transcription regulator that is activated by various intra- and extra-cellular stimuli such as cytokines, oxidant-free radicals, ultraviolet irradiation, and bacterial or viral products. Activated NFKB translocates into the nucleus and stimulates the expression of genes involved in a wide variety of biological functions. Inappropriate activation of NFKB has been associated with a number of inflammatory diseases while persistent inhibition of NFKB leads to inappropriate immune cell development or delayed cell growth. Alternative splicing results in multiple transcript variants encoding different isoforms, at least one of which is proteolytically processed. [provided by RefSeq, Feb 2016]</t>
+  </si>
+  <si>
+    <t>TNFSF10</t>
+  </si>
+  <si>
+    <t>TNF superfamily member 10 (TRAIL)</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a cytokine that belongs to the tumor necrosis factor (TNF) ligand family. This protein preferentially induces apoptosis in transformed and tumor cells, but does not appear to kill normal cells although it is expressed at a significant level in most normal tissues. This protein binds to several members of TNF receptor superfamily including TNFRSF10A/TRAILR1, TNFRSF10B/TRAILR2, TNFRSF10C/TRAILR3, TNFRSF10D/TRAILR4, and possibly also to TNFRSF11B/OPG. The activity of this protein may be modulated by binding to the decoy receptors TNFRSF10C/TRAILR3, TNFRSF10D/TRAILR4, and TNFRSF11B/OPG that cannot induce apoptosis. The binding of this protein to its receptors has been shown to trigger the activation of MAPK8/JNK, caspase 8, and caspase 3. Alternatively spliced transcript variants encoding different isoforms have been found for this gene. [provided by RefSeq, Jul 2010]</t>
+  </si>
+  <si>
+    <t>MAPK8</t>
+  </si>
+  <si>
+    <t>DDB1 and CUL4 associated factor 6  (MKI67)</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 8 (JNK)</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a member of the MAP kinase family. MAP kinases act as an integration point for multiple biochemical signals, and are involved in a wide variety of cellular processes such as proliferation, differentiation, transcription regulation and development. This kinase is activated by various cell stimuli, and targets specific transcription factors, and thus mediates immediate-early gene expression in response to cell stimuli. The activation of this kinase by tumor-necrosis factor alpha (TNF-alpha) is found to be required for TNF-alpha induced apoptosis. This kinase is also involved in UV radiation induced apoptosis, which is thought to be related to cytochrom c-mediated cell death pathway. Studies of the mouse counterpart of this gene suggested that this kinase play a key role in T cell proliferation, apoptosis and differentiation. Several alternatively spliced transcript variants encoding distinct isoforms have been reported. [provided by RefSeq, Apr 2016]</t>
+  </si>
+  <si>
+    <t>AKT serine/threonine kinase 1</t>
+  </si>
+  <si>
+    <t>The serine-threonine protein kinase encoded by the AKT1 gene is catalytically inactive in serum-starved primary and immortalized fibroblasts. AKT1 and the related AKT2 are activated by platelet-derived growth factor. The activation is rapid and specific, and it is abrogated by mutations in the pleckstrin homology domain of AKT1. It was shown that the activation occurs through phosphatidylinositol 3-kinase. In the developing nervous system AKT is a critical mediator of growth factor-induced neuronal survival. Survival factors can suppress apoptosis in a transcription-independent manner by activating the serine/threonine kinase AKT1, which then phosphorylates and inactivates components of the apoptotic machinery. Mutations in this gene have been associated with the Proteus syndrome. Multiple alternatively spliced transcript variants have been found for this gene. [provided by RefSeq, Jul 2011]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +1278,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1014,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1102,6 +1424,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,14 +1449,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1437,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F34BF-F1AB-44D3-9CA3-BE09FA4434C8}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1456,10 +1791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
@@ -1467,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="23"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="15" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1912,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1602,7 +1937,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1769,7 +2104,7 @@
         <v>81</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="37" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -1792,7 +2127,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="37" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -1813,7 +2148,7 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="37" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1840,7 +2175,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="37" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -1867,7 +2202,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="37" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -1970,12 +2305,421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05EBF3-6745-4848-97F4-4C6CCEF2239E}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="111.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="38" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/gene/" xr:uid="{CA47DB3B-A120-4D41-8E87-F4ADB69A28D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD88711-2F41-4B31-9076-9977AF7B32DD}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI8" sqref="AI8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,107 +2760,107 @@
     <col min="34" max="34" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:34" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2127,25 +2871,25 @@
       <c r="B2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>109</v>
       </c>
       <c r="J2" s="16" t="s">
@@ -2184,31 +2928,31 @@
       <c r="B3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="35" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2219,28 +2963,28 @@
       <c r="B4" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="35" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2251,43 +2995,43 @@
       <c r="B5" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="35" t="s">
         <v>137</v>
       </c>
       <c r="P5" s="16" t="s">
@@ -2301,85 +3045,85 @@
       <c r="B6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="Y6" s="38" t="s">
+      <c r="Y6" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" s="38" t="s">
+      <c r="Z6" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="AA6" s="38" t="s">
+      <c r="AA6" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" s="38" t="s">
+      <c r="AB6" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="AC6" s="38" t="s">
+      <c r="AC6" s="35" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2390,14 +3134,14 @@
       <c r="B7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -2432,58 +3176,58 @@
       <c r="C8" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="35" t="s">
         <v>218</v>
       </c>
       <c r="V8" s="16" t="s">
@@ -2492,37 +3236,37 @@
       <c r="W8" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z8" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="AA8" s="38" t="s">
+      <c r="AA8" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="AB8" s="38" t="s">
+      <c r="AB8" s="35" t="s">
         <v>225</v>
       </c>
       <c r="AC8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AD8" s="38" t="s">
+      <c r="AD8" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="AE8" s="38" t="s">
+      <c r="AE8" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="AF8" s="38" t="s">
+      <c r="AF8" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AG8" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="AH8" s="38" t="s">
+      <c r="AH8" s="35" t="s">
         <v>236</v>
       </c>
     </row>

--- a/CBD_GEO_data_and_articles.xlsx
+++ b/CBD_GEO_data_and_articles.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D571D-F0BB-4655-9412-97AF60ECF208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724F1EF-174A-431A-8DF5-BBCD29F439C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="GEO_datasets" sheetId="1" r:id="rId1"/>
     <sheet name="genes" sheetId="3" r:id="rId2"/>
-    <sheet name="ArticlesCBD" sheetId="2" r:id="rId3"/>
+    <sheet name="EndocrineHormones" sheetId="4" r:id="rId3"/>
+    <sheet name="ArticlesCBD" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="426">
   <si>
     <t>Public on Apr 17, 2015</t>
   </si>
@@ -1218,6 +1219,288 @@
   </si>
   <si>
     <t>The serine-threonine protein kinase encoded by the AKT1 gene is catalytically inactive in serum-starved primary and immortalized fibroblasts. AKT1 and the related AKT2 are activated by platelet-derived growth factor. The activation is rapid and specific, and it is abrogated by mutations in the pleckstrin homology domain of AKT1. It was shown that the activation occurs through phosphatidylinositol 3-kinase. In the developing nervous system AKT is a critical mediator of growth factor-induced neuronal survival. Survival factors can suppress apoptosis in a transcription-independent manner by activating the serine/threonine kinase AKT1, which then phosphorylates and inactivates components of the apoptotic machinery. Mutations in this gene have been associated with the Proteus syndrome. Multiple alternatively spliced transcript variants have been found for this gene. [provided by RefSeq, Jul 2011]</t>
+  </si>
+  <si>
+    <t>Reactive oxygen species-mediated therapeutic response and resistance in glioblastoma</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Singer, E., Judkins, J., Salomonis, N., Matlaf, L., Soteropoulos, P., McAllister, S., and Soroceanu, L. (2015). Reactive oxygen species-mediated therapeutic response and resistance in glioblastoma. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cell Death and Disease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6(1601). Accessible at doi:10.1038/cddis.2014.566 </t>
+    </r>
+  </si>
+  <si>
+    <t>TSHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thyroid stimulating hormone receptor </t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a membrane protein and a major controller of thyroid cell metabolism. The encoded protein is a receptor for thyrothropin and thyrostimulin, and its activity is mediated by adenylate cyclase. Defects in this gene are a cause of several types of hyperthyroidism. Three transcript variants encoding different isoforms have been found for this gene. [provided by RefSeq, Dec 2008]</t>
+  </si>
+  <si>
+    <t>TRH</t>
+  </si>
+  <si>
+    <t>thyrotropin releasing hormone</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the thyrotropin-releasing hormone family. Cleavage of the encoded proprotein releases mature thyrotropin-releasing hormone, which is a tripeptide hypothalamic regulatory hormone. The human proprotein contains six thyrotropin-releasing hormone tripeptides. Thyrotropin-releasing hormone is involved in the regulation and release of thyroid-stimulating hormone, as well as prolactin. Deficiency of this hormone has been associated with hypothalamic hypothyroidism. [provided by RefSeq, May 2013]</t>
+  </si>
+  <si>
+    <t>MC2R</t>
+  </si>
+  <si>
+    <t>MC2R encodes one member of the five-member G-protein associated melanocortin receptor family. Melanocortins (melanocyte-stimulating hormones and adrenocorticotropic hormone) are peptides derived from pro-opiomelanocortin (POMC). MC2R is selectively activated by adrenocorticotropic hormone, whereas the other four melanocortin receptors recognize a variety of melanocortin ligands. Mutations in MC2R can result in familial glucocorticoid deficiency. Alternate transcript variants have been found for this gene. [provided by RefSeq, May 2014]</t>
+  </si>
+  <si>
+    <t>melanocortin 2 receptor (ACTH-adrenocorticotrophic hormone)</t>
+  </si>
+  <si>
+    <t>GH1</t>
+  </si>
+  <si>
+    <t>growth hormone 1</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a member of the somatotropin/prolactin family of hormones which play an important role in growth control. The gene, along with four other related genes, is located at the growth hormone locus on chromosome 17 where they are interspersed in the same transcriptional orientation; an arrangement which is thought to have evolved by a series of gene duplications. The five genes share a remarkably high degree of sequence identity. Alternative splicing generates additional isoforms of each of the five growth hormones, leading to further diversity and potential for specialization. This particular family member is expressed in the pituitary but not in placental tissue as is the case for the other four genes in the growth hormone locus. Mutations in or deletions of the gene lead to growth hormone deficiency and short stature. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>GHR</t>
+  </si>
+  <si>
+    <t>growth hormone receptor</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the type I cytokine receptor family, which is a transmembrane receptor for growth hormone. Binding of growth hormone to the receptor leads to receptor dimerization and the activation of an intra- and intercellular signal transduction pathway leading to growth. Mutations in this gene have been associated with Laron syndrome, also known as the growth hormone insensitivity syndrome (GHIS), a disorder characterized by short stature. In humans and rabbits, but not rodents, growth hormone binding protein (GHBP) is generated by proteolytic cleavage of the extracellular ligand-binding domain from the mature growth hormone receptor protein. Multiple alternatively spliced transcript variants have been found for this gene.[provided by RefSeq, Jun 2011]</t>
+  </si>
+  <si>
+    <t>FSHB</t>
+  </si>
+  <si>
+    <t>follicle stimulating hormone subunit beta</t>
+  </si>
+  <si>
+    <t>The pituitary glycoprotein hormone family includes follicle-stimulating hormone, luteinizing hormone, chorionic gonadotropin, and thyroid-stimulating hormone. All of these glycoproteins consist of an identical alpha subunit and a hormone-specific beta subunit. This gene encodes the beta subunit of follicle-stimulating hormone. In conjunction with luteinizing hormone, follicle-stimulating hormone induces egg and sperm production. Alternative splicing results in two transcript variants encoding the same protein. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>FSHR</t>
+  </si>
+  <si>
+    <t>follicle stimulating hormone receptor</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene belongs to family 1 of G-protein coupled receptors. It is the receptor for follicle stimulating hormone and functions in gonad development. Mutations in this gene cause ovarian dysgenesis type 1, and also ovarian hyperstimulation syndrome. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Mar 2010]</t>
+  </si>
+  <si>
+    <t>MC1R</t>
+  </si>
+  <si>
+    <t>melanocortin 1 receptor</t>
+  </si>
+  <si>
+    <t>This intronless gene encodes the receptor protein for melanocyte-stimulating hormone (MSH). The encoded protein, a seven pass transmembrane G protein coupled receptor, controls melanogenesis. Two types of melanin exist: red pheomelanin and black eumelanin. Gene mutations that lead to a loss in function are associated with increased pheomelanin production, which leads to lighter skin and hair color. Eumelanin is photoprotective but pheomelanin may contribute to UV-induced skin damage by generating free radicals upon UV radiation. Binding of MSH to its receptor activates the receptor and stimulates eumelanin synthesis. This receptor is a major determining factor in sun sensitivity and is a genetic risk factor for melanoma and non-melanoma skin cancer. Over 30 variant alleles have been identified which correlate with skin and hair color, providing evidence that this gene is an important component in determining normal human pigment variation. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>LHCGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luteinizing hormone/choriogonadotropin receptor </t>
+  </si>
+  <si>
+    <t>This gene encodes the receptor for both luteinizing hormone and choriogonadotropin. This receptor belongs to the G-protein coupled receptor 1 family, and its activity is mediated by G proteins which activate adenylate cyclase. Mutations in this gene result in disorders of male secondary sexual character development, including familial male precocious puberty, also known as testotoxicosis, hypogonadotropic hypogonadism, Leydig cell adenoma with precocious puberty, and male pseudohermaphtoditism with Leydig cell hypoplasia. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>PRL</t>
+  </si>
+  <si>
+    <t>prolactin</t>
+  </si>
+  <si>
+    <t>This gene encodes the anterior pituitary hormone prolactin. This secreted hormone is a growth regulator for many tissues, including cells of the immune system. It may also play a role in cell survival by suppressing apoptosis, and it is essential for lactation. Alternative splicing results in multiple transcript variants that encode the same protein. [provided by RefSeq, Aug 2011]</t>
+  </si>
+  <si>
+    <t>AVP</t>
+  </si>
+  <si>
+    <t>arginine vasopressin</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the vasopressin/oxytocin family and preproprotein that is proteolytically processed to generate multiple protein products. These products include the neuropeptide hormone arginine vasopressin, and two other peptides, neurophysin 2 and copeptin. Arginine vasopressin is a posterior pituitary hormone that is synthesized in the supraoptic nucleus and paraventricular nucleus of the hypothalamus. Along with its carrier protein, neurophysin 2, it is packaged into neurosecretory vesicles and transported axonally to the nerve endings in the neurohypophysis where it is either stored or secreted into the bloodstream. The precursor is thought to be activated while it is being transported along the axon to the posterior pituitary. Arginine vasopressin acts as a growth factor by enhancing pH regulation through acid-base transport systems. It has a direct antidiuretic action on the kidney, and also causes vasoconstriction of the peripheral vessels. This hormone can contract smooth muscle during parturition and lactation. It is also involved in cognition, tolerance, adaptation and complex sexual and maternal behaviour, as well as in the regulation of water excretion and cardiovascular functions. Mutations in this gene cause autosomal dominant neurohypophyseal diabetes insipidus (ADNDI). This gene is present in a gene cluster with the related gene oxytocin on chromosome 20. [provided by RefSeq, Nov 2015]</t>
+  </si>
+  <si>
+    <t>oxytocin/neurophysin I prepropeptide</t>
+  </si>
+  <si>
+    <t>OXT</t>
+  </si>
+  <si>
+    <t>This gene encodes a precursor protein that is processed to produce oxytocin and neurophysin I. Oxytocin is a posterior pituitary hormone which is synthesized as an inactive precursor in the hypothalamus along with its carrier protein neurophysin I. Together with neurophysin, it is packaged into neurosecretory vesicles and transported axonally to the nerve endings in the neurohypophysis, where it is either stored or secreted into the bloodstream. The precursor seems to be activated while it is being transported along the axon to the posterior pituitary. This hormone contracts smooth muscle during parturition and lactation. It is also involved in cognition, tolerance, adaptation and complex sexual and maternal behaviour, as well as in the regulation of water excretion and cardiovascular functions. [provided by RefSeq, Dec 2013]</t>
+  </si>
+  <si>
+    <t>SERPINA7</t>
+  </si>
+  <si>
+    <t>There are three proteins including thyroxine-binding globulin (TBG), transthyretin and albumin responsible for carrying the thyroid hormones thyroxine (T4) and 3,5,3'-triiodothyronine (T3) in the bloodstream. This gene encodes the major thyroid hormone transport protein, TBG, in serum. It belongs to the serpin family in genomics, but the protein has no inhibitory function like many other members of the serpin family. Mutations in this gene result in TGB deficiency, which has been classified as partial deficiency, complete deficiency, and excess, based on the level of serum TBG. Alternatively spliced transcript variants encoding different isoforms have been found, but the full-length nature of these variants has not been determined.[provided by RefSeq, Jun 2012]</t>
+  </si>
+  <si>
+    <t>serpin family A member 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thyroid hormone receptor alpha </t>
+  </si>
+  <si>
+    <t>THRA</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a nuclear hormone receptor for triiodothyronine. It is one of the several receptors for thyroid hormone, and has been shown to mediate the biological activities of thyroid hormone. Knockout studies in mice suggest that the different receptors, while having certain extent of redundancy, may mediate different functions of thyroid hormone. Alternatively spliced transcript variants encoding distinct isoforms have been reported. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>CALCA</t>
+  </si>
+  <si>
+    <t>calcitonin related polypeptide alpha</t>
+  </si>
+  <si>
+    <t>This gene encodes the peptide hormones calcitonin, calcitonin gene-related peptide and katacalcin by tissue-specific alternative RNA splicing of the gene transcripts and cleavage of inactive precursor proteins. Calcitonin is involved in calcium regulation and acts to regulate phosphorus metabolism. Calcitonin gene-related peptide functions as a vasodilator and as an antimicrobial peptide while katacalcin is a calcium-lowering peptide. Multiple transcript variants encoding different isoforms have been found for this gene.[provided by RefSeq, Aug 2014]</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>parathyroid hormone</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the parathyroid family of proteins. The encoded preproprotein is proteolytically processed to generate a protein that binds to the parathyroid hormone/parathyroid hormone-related peptide receptor and regulates blood calcium and phosphate levels. Excess production of the encoded protein, known as hyperparathyroidism, can result in hypercalcemia and kidney stones. On the other hand, defective processing of the encoded protein may lead to hypoparathyroidism, which can result in hypocalcemia and numbness. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Oct 2015]</t>
+  </si>
+  <si>
+    <t>CASR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calcium sensing receptor</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene is a plasma membrane G protein-coupled receptor that senses small changes in circulating calcium concentration. The encoded protein couples this information to intracellular signaling pathways that modify parathyroid hormone secretion or renal cation handling, and thus this protein plays an essential role in maintaining mineral ion homeostasis. Mutations in this gene are a cause of familial hypocalciuric hypercalcemia, neonatal severe hyperparathyroidism, and autosomal dominant hypocalcemia. [provided by RefSeq, Aug 2017]</t>
+  </si>
+  <si>
+    <t>TMSB4X</t>
+  </si>
+  <si>
+    <t>thymosin beta 4 X-linked</t>
+  </si>
+  <si>
+    <t>This gene encodes an actin sequestering protein which plays a role in regulation of actin polymerization. The protein is also involved in cell proliferation, migration, and differentiation. This gene escapes X inactivation and has a homolog on chromosome Y. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>IRS1</t>
+  </si>
+  <si>
+    <t>insulin receptor substrate 1</t>
+  </si>
+  <si>
+    <t>This gene encodes a protein which is phosphorylated by insulin receptor tyrosine kinase. Mutations in this gene are associated with type II diabetes and susceptibility to insulin resistance. [provided by RefSeq, Nov 2009]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The protein encoded by this gene is similar to insulin in function and structure and is a member of a family of proteins involved in mediating growth and development. The encoded protein is processed from a precursor, bound by a specific receptor, and secreted. Defects in this gene are a cause of insulin-like growth factor I deficiency. Alternative splicing results in multiple transcript variants encoding different isoforms that may undergo similar processing to generate mature protein. [provided by RefSeq, Sep 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulin like growth factor 1 </t>
+  </si>
+  <si>
+    <t>IGF1</t>
+  </si>
+  <si>
+    <t>IGF1R</t>
+  </si>
+  <si>
+    <t>insulin like growth factor 1 receptor</t>
+  </si>
+  <si>
+    <t>This receptor binds insulin-like growth factor with a high affinity. It has tyrosine kinase activity. The insulin-like growth factor I receptor plays a critical role in transformation events. Cleavage of the precursor generates alpha and beta subunits. It is highly overexpressed in most malignant tissues where it functions as an anti-apoptotic agent by enhancing cell survival. Alternatively spliced transcript variants encoding distinct isoforms have been found for this gene. [provided by RefSeq, May 2014]</t>
+  </si>
+  <si>
+    <t>INSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulin receptor</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the receptor tyrosine kinase family of proteins. The encoded preproprotein is proteolytically processed to generate alpha and beta subunits that form a heterotetrameric receptor. Binding of insulin or other ligands to this receptor activates the insulin signaling pathway, which regulates glucose uptake and release, as well as the synthesis and storage of carbohydrates, lipids and protein. Mutations in this gene underlie the inherited severe insulin resistance syndromes including type A insulin resistance syndrome, Donohue syndrome and Rabson-Mendenhall syndrome. Alternative splicing results in multiple transcript variants. [provided by RefSeq, Oct 2015]</t>
+  </si>
+  <si>
+    <t>adrenoceptor beta 2</t>
+  </si>
+  <si>
+    <t>ADRB2</t>
+  </si>
+  <si>
+    <t>This gene encodes beta-2-adrenergic receptor which is a member of the G protein-coupled receptor superfamily. This receptor is directly associated with one of its ultimate effectors, the class C L-type calcium channel Ca(V)1.2. This receptor-channel complex also contains a G protein, an adenylyl cyclase, cAMP-dependent kinase, and the counterbalancing phosphatase, PP2A. The assembly of the signaling complex provides a mechanism that ensures specific and rapid signaling by this G protein-coupled receptor. This gene is intronless. Different polymorphic forms, point mutations, and/or downregulation of this gene are associated with nocturnal asthma, obesity and type 2 diabetes. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>vascular endothelial growth factor A</t>
+  </si>
+  <si>
+    <t>VEGFA</t>
+  </si>
+  <si>
+    <t>This gene is a member of the PDGF/VEGF growth factor family. It encodes a heparin-binding protein, which exists as a disulfide-linked homodimer. This growth factor induces proliferation and migration of vascular endothelial cells, and is essential for both physiological and pathological angiogenesis. Disruption of this gene in mice resulted in abnormal embryonic blood vessel formation. This gene is upregulated in many known tumors and its expression is correlated with tumor stage and progression. Elevated levels of this protein are found in patients with POEMS syndrome, also known as Crow-Fukase syndrome. Allelic variants of this gene have been associated with microvascular complications of diabetes 1 (MVCD1) and atherosclerosis. Alternatively spliced transcript variants encoding different isoforms have been described. There is also evidence for alternative translation initiation from upstream non-AUG (CUG) codons resulting in additional isoforms. A recent study showed that a C-terminally extended isoform is produced by use of an alternative in-frame translation termination codon via a stop codon readthrough mechanism, and that this isoform is antiangiogenic. Expression of some isoforms derived from the AUG start codon is regulated by a small upstream open reading frame, which is located within an internal ribosome entry site. [provided by RefSeq, Nov 2015]</t>
+  </si>
+  <si>
+    <t>adiponectin, C1Q and collagen domain containing</t>
+  </si>
+  <si>
+    <t>ADIPOQ</t>
+  </si>
+  <si>
+    <t>This gene is expressed in adipose tissue exclusively. It encodes a protein with similarity to collagens X and VIII and complement factor C1q. The encoded protein circulates in the plasma and is involved with metabolic and hormonal processes. Mutations in this gene are associated with adiponectin deficiency. Multiple alternatively spliced variants, encoding the same protein, have been identified. [provided by RefSeq, Apr 2010]</t>
+  </si>
+  <si>
+    <t>adrenoceptor beta 1</t>
+  </si>
+  <si>
+    <t>The adrenergic receptors (subtypes alpha 1, alpha 2, beta 1, and beta 2) are a prototypic family of guanine nucleotide binding regulatory protein-coupled receptors that mediate the physiological effects of the hormone epinephrine and the neurotransmitter norepinephrine. Specific polymorphisms in this gene have been shown to affect the resting heart rate and can be involved in heart failure. [provided by RefSeq, Jul 2008]</t>
+  </si>
+  <si>
+    <t>ADRB1</t>
+  </si>
+  <si>
+    <t>SLC6A2</t>
+  </si>
+  <si>
+    <t>solute carrier family 6 member 2</t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the sodium:neurotransmitter symporter family. This member is a multi-pass membrane protein, which is responsible for reuptake of norepinephrine into presynaptic nerve terminals and is a regulator of norepinephrine homeostasis. Mutations in this gene cause orthostatic intolerance, a syndrome characterized by lightheadedness, fatigue, altered mentation and syncope. Alternatively spliced transcript variants encoding different isoforms have been identified in this gene.[provided by RefSeq, Feb 2010]</t>
+  </si>
+  <si>
+    <t>glycogen phosphorylase, muscle associated</t>
+  </si>
+  <si>
+    <t>PYGM</t>
+  </si>
+  <si>
+    <t>This gene encodes a muscle enzyme involved in glycogenolysis. Highly similar enzymes encoded by different genes are found in liver and brain. Mutations in this gene are associated with McArdle disease (myophosphorylase deficiency), a glycogen storage disease of muscle. Alternative splicing results in multiple transcript variants.[provided by RefSeq, Sep 2009]</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +1605,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1336,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1454,6 +1743,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2306,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05EBF3-6745-4848-97F4-4C6CCEF2239E}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,18 +2987,67 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:3" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -2714,10 +3061,404 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB9838-ED1C-45AB-A6D5-0D1A29EC8965}">
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="48" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="48" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="48" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD88711-2F41-4B31-9076-9977AF7B32DD}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -3271,7 +4012,12 @@
       </c>
     </row>
     <row r="9" spans="1:34" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="10" spans="1:34" s="16" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>

--- a/CBD_GEO_data_and_articles.xlsx
+++ b/CBD_GEO_data_and_articles.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\CBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724F1EF-174A-431A-8DF5-BBCD29F439C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD3C22-7013-4C5E-A923-5EDF0B4CB4EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFCC8418-6FED-4C21-BD73-E189194EEDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="GEO_datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="genes" sheetId="3" r:id="rId2"/>
-    <sheet name="EndocrineHormones" sheetId="4" r:id="rId3"/>
-    <sheet name="ArticlesCBD" sheetId="2" r:id="rId4"/>
+    <sheet name="DatasetsSamplesInfo" sheetId="6" r:id="rId2"/>
+    <sheet name="genes" sheetId="3" r:id="rId3"/>
+    <sheet name="EndocrineHormones" sheetId="4" r:id="rId4"/>
+    <sheet name="ArticlesCBD" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="815">
   <si>
     <t>Public on Apr 17, 2015</t>
   </si>
@@ -1502,12 +1503,1179 @@
   <si>
     <t>This gene encodes a muscle enzyme involved in glycogenolysis. Highly similar enzymes encoded by different genes are found in liver and brain. Mutations in this gene are associated with McArdle disease (myophosphorylase deficiency), a glycogen storage disease of muscle. Alternative splicing results in multiple transcript variants.[provided by RefSeq, Sep 2009]</t>
   </si>
+  <si>
+    <t>GSM1399027.CBD</t>
+  </si>
+  <si>
+    <t>GSM1399028.CTRL</t>
+  </si>
+  <si>
+    <t>GSM1399029.CBD</t>
+  </si>
+  <si>
+    <t>GSM1399030.CTRL</t>
+  </si>
+  <si>
+    <t>GSM1399031.CBD</t>
+  </si>
+  <si>
+    <t>glioma data set</t>
+  </si>
+  <si>
+    <t>GSM1385013.REP1</t>
+  </si>
+  <si>
+    <t>GSM1385014.REP2</t>
+  </si>
+  <si>
+    <t>GSM1385015.REP2</t>
+  </si>
+  <si>
+    <t>GSM1385016.CTRL</t>
+  </si>
+  <si>
+    <t>GSM1385017.CBD</t>
+  </si>
+  <si>
+    <t>sebum data set</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>CSV_Source</t>
+  </si>
+  <si>
+    <t>GENE</t>
+  </si>
+  <si>
+    <t>CYTOBAND</t>
+  </si>
+  <si>
+    <t>GENE_SYMBOL</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>UL_mean</t>
+  </si>
+  <si>
+    <t>nonUL_mean</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>foldChange</t>
+  </si>
+  <si>
+    <t>GSM1667144</t>
+  </si>
+  <si>
+    <t>GSM1667145</t>
+  </si>
+  <si>
+    <t>GSM1667146</t>
+  </si>
+  <si>
+    <t>GSM336252</t>
+  </si>
+  <si>
+    <t>GSM336253</t>
+  </si>
+  <si>
+    <t>GSM336254</t>
+  </si>
+  <si>
+    <t>GSM336255</t>
+  </si>
+  <si>
+    <t>GSM336256</t>
+  </si>
+  <si>
+    <t>GSM336257</t>
+  </si>
+  <si>
+    <t>GSM336258</t>
+  </si>
+  <si>
+    <t>GSM336259</t>
+  </si>
+  <si>
+    <t>GSM336260</t>
+  </si>
+  <si>
+    <t>GSM336261</t>
+  </si>
+  <si>
+    <t>GSM336262</t>
+  </si>
+  <si>
+    <t>GSM336263</t>
+  </si>
+  <si>
+    <t>GSM336264</t>
+  </si>
+  <si>
+    <t>GSM336265</t>
+  </si>
+  <si>
+    <t>GSM336266</t>
+  </si>
+  <si>
+    <t>GSM336267</t>
+  </si>
+  <si>
+    <t>GSM336268</t>
+  </si>
+  <si>
+    <t>GSM336269</t>
+  </si>
+  <si>
+    <t>GSM336270</t>
+  </si>
+  <si>
+    <t>GSM336271</t>
+  </si>
+  <si>
+    <t>GSM336272</t>
+  </si>
+  <si>
+    <t>GSM336273</t>
+  </si>
+  <si>
+    <t>GSM336274</t>
+  </si>
+  <si>
+    <t>GSM336275</t>
+  </si>
+  <si>
+    <t>GSM336276</t>
+  </si>
+  <si>
+    <t>GSM336277</t>
+  </si>
+  <si>
+    <t>GSM336278</t>
+  </si>
+  <si>
+    <t>GSM52661</t>
+  </si>
+  <si>
+    <t>GSM52662</t>
+  </si>
+  <si>
+    <t>GSM52663</t>
+  </si>
+  <si>
+    <t>GSM52664</t>
+  </si>
+  <si>
+    <t>GSM52665</t>
+  </si>
+  <si>
+    <t>GSM52666</t>
+  </si>
+  <si>
+    <t>GSM52667</t>
+  </si>
+  <si>
+    <t>GSM52668</t>
+  </si>
+  <si>
+    <t>GSM52669</t>
+  </si>
+  <si>
+    <t>GSM52670</t>
+  </si>
+  <si>
+    <t>GSM52671</t>
+  </si>
+  <si>
+    <t>GSM9098</t>
+  </si>
+  <si>
+    <t>GSM9099</t>
+  </si>
+  <si>
+    <t>GSM9100</t>
+  </si>
+  <si>
+    <t>GSM9101</t>
+  </si>
+  <si>
+    <t>GSM9102</t>
+  </si>
+  <si>
+    <t>GSM569424</t>
+  </si>
+  <si>
+    <t>GSM569425</t>
+  </si>
+  <si>
+    <t>GSM569426</t>
+  </si>
+  <si>
+    <t>GSM569427</t>
+  </si>
+  <si>
+    <t>GSM569428</t>
+  </si>
+  <si>
+    <t>GSM1667147UL</t>
+  </si>
+  <si>
+    <t>GSM1667148UL</t>
+  </si>
+  <si>
+    <t>GSM1667149UL</t>
+  </si>
+  <si>
+    <t>GSM336202UL</t>
+  </si>
+  <si>
+    <t>GSM336203UL</t>
+  </si>
+  <si>
+    <t>GSM336204UL</t>
+  </si>
+  <si>
+    <t>GSM336205UL</t>
+  </si>
+  <si>
+    <t>GSM336206UL</t>
+  </si>
+  <si>
+    <t>GSM336207UL</t>
+  </si>
+  <si>
+    <t>GSM336208UL</t>
+  </si>
+  <si>
+    <t>GSM336209UL</t>
+  </si>
+  <si>
+    <t>GSM336210UL</t>
+  </si>
+  <si>
+    <t>GSM336211UL</t>
+  </si>
+  <si>
+    <t>GSM336212UL</t>
+  </si>
+  <si>
+    <t>GSM336213UL</t>
+  </si>
+  <si>
+    <t>GSM336214UL</t>
+  </si>
+  <si>
+    <t>GSM336215UL</t>
+  </si>
+  <si>
+    <t>GSM336216UL</t>
+  </si>
+  <si>
+    <t>GSM336217UL</t>
+  </si>
+  <si>
+    <t>GSM336218UL</t>
+  </si>
+  <si>
+    <t>GSM336219UL</t>
+  </si>
+  <si>
+    <t>GSM336220UL</t>
+  </si>
+  <si>
+    <t>GSM336221UL</t>
+  </si>
+  <si>
+    <t>GSM336222UL</t>
+  </si>
+  <si>
+    <t>GSM336223UL</t>
+  </si>
+  <si>
+    <t>GSM336224UL</t>
+  </si>
+  <si>
+    <t>GSM336225UL</t>
+  </si>
+  <si>
+    <t>GSM336226UL</t>
+  </si>
+  <si>
+    <t>GSM336227UL</t>
+  </si>
+  <si>
+    <t>GSM336228UL</t>
+  </si>
+  <si>
+    <t>GSM336229UL</t>
+  </si>
+  <si>
+    <t>GSM336230UL</t>
+  </si>
+  <si>
+    <t>GSM336231UL</t>
+  </si>
+  <si>
+    <t>GSM336232UL</t>
+  </si>
+  <si>
+    <t>GSM336233UL</t>
+  </si>
+  <si>
+    <t>GSM336234UL</t>
+  </si>
+  <si>
+    <t>GSM336235UL</t>
+  </si>
+  <si>
+    <t>GSM336236UL</t>
+  </si>
+  <si>
+    <t>GSM336237UL</t>
+  </si>
+  <si>
+    <t>GSM336238UL</t>
+  </si>
+  <si>
+    <t>GSM336239UL</t>
+  </si>
+  <si>
+    <t>GSM336240UL</t>
+  </si>
+  <si>
+    <t>GSM336241UL</t>
+  </si>
+  <si>
+    <t>GSM336242UL</t>
+  </si>
+  <si>
+    <t>GSM336243UL</t>
+  </si>
+  <si>
+    <t>GSM336244UL</t>
+  </si>
+  <si>
+    <t>GSM336245UL</t>
+  </si>
+  <si>
+    <t>GSM336246UL</t>
+  </si>
+  <si>
+    <t>GSM336247UL</t>
+  </si>
+  <si>
+    <t>GSM336248UL</t>
+  </si>
+  <si>
+    <t>GSM336249UL</t>
+  </si>
+  <si>
+    <t>GSM336250UL</t>
+  </si>
+  <si>
+    <t>GSM336251UL</t>
+  </si>
+  <si>
+    <t>GSM38689UL</t>
+  </si>
+  <si>
+    <t>GSM38690UL</t>
+  </si>
+  <si>
+    <t>GSM38691UL</t>
+  </si>
+  <si>
+    <t>GSM38692UL</t>
+  </si>
+  <si>
+    <t>GSM38693UL</t>
+  </si>
+  <si>
+    <t>GSM38694UL</t>
+  </si>
+  <si>
+    <t>GSM38695UL</t>
+  </si>
+  <si>
+    <t>GSM9093UL</t>
+  </si>
+  <si>
+    <t>GSM9094UL</t>
+  </si>
+  <si>
+    <t>GSM9095UL</t>
+  </si>
+  <si>
+    <t>GSM9096UL</t>
+  </si>
+  <si>
+    <t>GSM9097UL</t>
+  </si>
+  <si>
+    <t>GSM569429UL</t>
+  </si>
+  <si>
+    <t>GSM569430UL</t>
+  </si>
+  <si>
+    <t>GSM569431UL</t>
+  </si>
+  <si>
+    <t>GSM569432UL</t>
+  </si>
+  <si>
+    <t>GSM569433UL</t>
+  </si>
+  <si>
+    <t>gliomaCBD.csv</t>
+  </si>
+  <si>
+    <t>sebumCBD.csv</t>
+  </si>
+  <si>
+    <t>all_common_12173_130_fold_magnitude.csv</t>
+  </si>
+  <si>
+    <t>uterine leiomyoma data set</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>GeneSymbol</t>
+  </si>
+  <si>
+    <t>row names</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>pancreaticCancerGenes.csv</t>
+  </si>
+  <si>
+    <t>pancreatic cancer data set</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>MiaPACA2_EV</t>
+  </si>
+  <si>
+    <t>MiaPACA2_EV.Detection_Pval</t>
+  </si>
+  <si>
+    <t>MiaPACA2_ARHGEF10</t>
+  </si>
+  <si>
+    <t>MiaPACA2_ARHGEF10.Detection_Pval</t>
+  </si>
+  <si>
+    <t>Hs766T_shGFP</t>
+  </si>
+  <si>
+    <t>Hs766T_shGFP.Detection_Pval</t>
+  </si>
+  <si>
+    <t>Hs766T_shARHGEF10</t>
+  </si>
+  <si>
+    <t>Hs766T_shARHGEF10.Detection_Pval</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>UL control</t>
+  </si>
+  <si>
+    <t>glioma control</t>
+  </si>
+  <si>
+    <t>sebum control</t>
+  </si>
+  <si>
+    <t>sebum CBD treated</t>
+  </si>
+  <si>
+    <t>glioma CBD treated</t>
+  </si>
+  <si>
+    <t>UL meta</t>
+  </si>
+  <si>
+    <t>UL disease</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>pancreatic meta</t>
+  </si>
+  <si>
+    <t>pancreatic control</t>
+  </si>
+  <si>
+    <t>pancreatic control Pval</t>
+  </si>
+  <si>
+    <t>pancreatic control down ARHGEF10</t>
+  </si>
+  <si>
+    <t>pancreatic up ARHGEF10</t>
+  </si>
+  <si>
+    <t>pancreatic up ARHGEF10 Pval</t>
+  </si>
+  <si>
+    <t>pancreatic control down ARHGEF10 Pval</t>
+  </si>
+  <si>
+    <t>pancreatic down ARHGEF10</t>
+  </si>
+  <si>
+    <t>pancreatic down ARHGEF11 Pval</t>
+  </si>
+  <si>
+    <t>breast cancer data set</t>
+  </si>
+  <si>
+    <t>BreastCancerCleaned.csv</t>
+  </si>
+  <si>
+    <t>ColonCancerCleaned.csv</t>
+  </si>
+  <si>
+    <t>StomachCancerCleaned.csv</t>
+  </si>
+  <si>
+    <t>GSM2987594</t>
+  </si>
+  <si>
+    <t>GSM2987595</t>
+  </si>
+  <si>
+    <t>GSM2987596</t>
+  </si>
+  <si>
+    <t>GSM2987597</t>
+  </si>
+  <si>
+    <t>GSM2987598</t>
+  </si>
+  <si>
+    <t>GSM2987599</t>
+  </si>
+  <si>
+    <t>breast cancer meta</t>
+  </si>
+  <si>
+    <t>breast cancer control</t>
+  </si>
+  <si>
+    <t>breast cancer SH3GL2 treated</t>
+  </si>
+  <si>
+    <t>colon cancer data set</t>
+  </si>
+  <si>
+    <t>GSM4027437</t>
+  </si>
+  <si>
+    <t>GSM4027439</t>
+  </si>
+  <si>
+    <t>GSM4027441</t>
+  </si>
+  <si>
+    <t>GSM4027442</t>
+  </si>
+  <si>
+    <t>GSM4027444</t>
+  </si>
+  <si>
+    <t>GSM4027446</t>
+  </si>
+  <si>
+    <t>colon cancer meta</t>
+  </si>
+  <si>
+    <t>colon cancer control</t>
+  </si>
+  <si>
+    <t>colon cancer LGR5-2 down</t>
+  </si>
+  <si>
+    <t>colon cancer LGR5-1 down</t>
+  </si>
+  <si>
+    <t>GSM1583284</t>
+  </si>
+  <si>
+    <t>GSM1583285</t>
+  </si>
+  <si>
+    <t>GSM1583286</t>
+  </si>
+  <si>
+    <t>GSM1583287</t>
+  </si>
+  <si>
+    <t>GSM1583288</t>
+  </si>
+  <si>
+    <t>stomach cancer data set</t>
+  </si>
+  <si>
+    <t>stomach cancer meta</t>
+  </si>
+  <si>
+    <t>stomach cancer blood disease</t>
+  </si>
+  <si>
+    <t>stomach cancer healthy blood control</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>20326 X 6</t>
+  </si>
+  <si>
+    <t>13931 X 5</t>
+  </si>
+  <si>
+    <t>13932 X 5</t>
+  </si>
+  <si>
+    <t>13933 X 5</t>
+  </si>
+  <si>
+    <t>13934 X 5</t>
+  </si>
+  <si>
+    <t>13935 X 5</t>
+  </si>
+  <si>
+    <t>20327 X 6</t>
+  </si>
+  <si>
+    <t>20328 X 6</t>
+  </si>
+  <si>
+    <t>20329 X 6</t>
+  </si>
+  <si>
+    <t>20330 X 6</t>
+  </si>
+  <si>
+    <t>12173 X 130</t>
+  </si>
+  <si>
+    <t>12174 X 130</t>
+  </si>
+  <si>
+    <t>12175 X 130</t>
+  </si>
+  <si>
+    <t>12176 X 130</t>
+  </si>
+  <si>
+    <t>12177 X 130</t>
+  </si>
+  <si>
+    <t>12178 X 130</t>
+  </si>
+  <si>
+    <t>12179 X 130</t>
+  </si>
+  <si>
+    <t>12180 X 130</t>
+  </si>
+  <si>
+    <t>12181 X 130</t>
+  </si>
+  <si>
+    <t>12182 X 130</t>
+  </si>
+  <si>
+    <t>12183 X 130</t>
+  </si>
+  <si>
+    <t>12184 X 130</t>
+  </si>
+  <si>
+    <t>12185 X 130</t>
+  </si>
+  <si>
+    <t>12186 X 130</t>
+  </si>
+  <si>
+    <t>12187 X 130</t>
+  </si>
+  <si>
+    <t>12188 X 130</t>
+  </si>
+  <si>
+    <t>12189 X 130</t>
+  </si>
+  <si>
+    <t>12190 X 130</t>
+  </si>
+  <si>
+    <t>12191 X 130</t>
+  </si>
+  <si>
+    <t>12192 X 130</t>
+  </si>
+  <si>
+    <t>12193 X 130</t>
+  </si>
+  <si>
+    <t>12194 X 130</t>
+  </si>
+  <si>
+    <t>12195 X 130</t>
+  </si>
+  <si>
+    <t>12196 X 130</t>
+  </si>
+  <si>
+    <t>12197 X 130</t>
+  </si>
+  <si>
+    <t>12198 X 130</t>
+  </si>
+  <si>
+    <t>12199 X 130</t>
+  </si>
+  <si>
+    <t>12200 X 130</t>
+  </si>
+  <si>
+    <t>12201 X 130</t>
+  </si>
+  <si>
+    <t>12202 X 130</t>
+  </si>
+  <si>
+    <t>12203 X 130</t>
+  </si>
+  <si>
+    <t>12204 X 130</t>
+  </si>
+  <si>
+    <t>12205 X 130</t>
+  </si>
+  <si>
+    <t>12206 X 130</t>
+  </si>
+  <si>
+    <t>12207 X 130</t>
+  </si>
+  <si>
+    <t>12208 X 130</t>
+  </si>
+  <si>
+    <t>12209 X 130</t>
+  </si>
+  <si>
+    <t>12210 X 130</t>
+  </si>
+  <si>
+    <t>12211 X 130</t>
+  </si>
+  <si>
+    <t>12212 X 130</t>
+  </si>
+  <si>
+    <t>12213 X 130</t>
+  </si>
+  <si>
+    <t>12214 X 130</t>
+  </si>
+  <si>
+    <t>12215 X 130</t>
+  </si>
+  <si>
+    <t>12216 X 130</t>
+  </si>
+  <si>
+    <t>12217 X 130</t>
+  </si>
+  <si>
+    <t>12218 X 130</t>
+  </si>
+  <si>
+    <t>12219 X 130</t>
+  </si>
+  <si>
+    <t>12220 X 130</t>
+  </si>
+  <si>
+    <t>12221 X 130</t>
+  </si>
+  <si>
+    <t>12222 X 130</t>
+  </si>
+  <si>
+    <t>12223 X 130</t>
+  </si>
+  <si>
+    <t>12224 X 130</t>
+  </si>
+  <si>
+    <t>12225 X 130</t>
+  </si>
+  <si>
+    <t>12226 X 130</t>
+  </si>
+  <si>
+    <t>12227 X 130</t>
+  </si>
+  <si>
+    <t>12228 X 130</t>
+  </si>
+  <si>
+    <t>12229 X 130</t>
+  </si>
+  <si>
+    <t>12230 X 130</t>
+  </si>
+  <si>
+    <t>12231 X 130</t>
+  </si>
+  <si>
+    <t>12232 X 130</t>
+  </si>
+  <si>
+    <t>12233 X 130</t>
+  </si>
+  <si>
+    <t>12234 X 130</t>
+  </si>
+  <si>
+    <t>12235 X 130</t>
+  </si>
+  <si>
+    <t>12236 X 130</t>
+  </si>
+  <si>
+    <t>12237 X 130</t>
+  </si>
+  <si>
+    <t>12238 X 130</t>
+  </si>
+  <si>
+    <t>12239 X 130</t>
+  </si>
+  <si>
+    <t>12240 X 130</t>
+  </si>
+  <si>
+    <t>12241 X 130</t>
+  </si>
+  <si>
+    <t>12242 X 130</t>
+  </si>
+  <si>
+    <t>12243 X 130</t>
+  </si>
+  <si>
+    <t>12244 X 130</t>
+  </si>
+  <si>
+    <t>12245 X 130</t>
+  </si>
+  <si>
+    <t>12246 X 130</t>
+  </si>
+  <si>
+    <t>12247 X 130</t>
+  </si>
+  <si>
+    <t>12248 X 130</t>
+  </si>
+  <si>
+    <t>12249 X 130</t>
+  </si>
+  <si>
+    <t>12250 X 130</t>
+  </si>
+  <si>
+    <t>12251 X 130</t>
+  </si>
+  <si>
+    <t>12252 X 130</t>
+  </si>
+  <si>
+    <t>12253 X 130</t>
+  </si>
+  <si>
+    <t>12254 X 130</t>
+  </si>
+  <si>
+    <t>12255 X 130</t>
+  </si>
+  <si>
+    <t>12256 X 130</t>
+  </si>
+  <si>
+    <t>12257 X 130</t>
+  </si>
+  <si>
+    <t>12258 X 130</t>
+  </si>
+  <si>
+    <t>12259 X 130</t>
+  </si>
+  <si>
+    <t>12260 X 130</t>
+  </si>
+  <si>
+    <t>12261 X 130</t>
+  </si>
+  <si>
+    <t>12262 X 130</t>
+  </si>
+  <si>
+    <t>12263 X 130</t>
+  </si>
+  <si>
+    <t>12264 X 130</t>
+  </si>
+  <si>
+    <t>12265 X 130</t>
+  </si>
+  <si>
+    <t>12266 X 130</t>
+  </si>
+  <si>
+    <t>12267 X 130</t>
+  </si>
+  <si>
+    <t>12268 X 130</t>
+  </si>
+  <si>
+    <t>12269 X 130</t>
+  </si>
+  <si>
+    <t>12270 X 130</t>
+  </si>
+  <si>
+    <t>12271 X 130</t>
+  </si>
+  <si>
+    <t>12272 X 130</t>
+  </si>
+  <si>
+    <t>12273 X 130</t>
+  </si>
+  <si>
+    <t>12274 X 130</t>
+  </si>
+  <si>
+    <t>12275 X 130</t>
+  </si>
+  <si>
+    <t>12276 X 130</t>
+  </si>
+  <si>
+    <t>12277 X 130</t>
+  </si>
+  <si>
+    <t>12278 X 130</t>
+  </si>
+  <si>
+    <t>12279 X 130</t>
+  </si>
+  <si>
+    <t>12280 X 130</t>
+  </si>
+  <si>
+    <t>12281 X 130</t>
+  </si>
+  <si>
+    <t>12282 X 130</t>
+  </si>
+  <si>
+    <t>12283 X 130</t>
+  </si>
+  <si>
+    <t>12284 X 130</t>
+  </si>
+  <si>
+    <t>12285 X 130</t>
+  </si>
+  <si>
+    <t>12286 X 130</t>
+  </si>
+  <si>
+    <t>12287 X 130</t>
+  </si>
+  <si>
+    <t>12288 X 130</t>
+  </si>
+  <si>
+    <t>12289 X 130</t>
+  </si>
+  <si>
+    <t>12290 X 130</t>
+  </si>
+  <si>
+    <t>12291 X 130</t>
+  </si>
+  <si>
+    <t>12292 X 130</t>
+  </si>
+  <si>
+    <t>12293 X 130</t>
+  </si>
+  <si>
+    <t>12294 X 130</t>
+  </si>
+  <si>
+    <t>12295 X 130</t>
+  </si>
+  <si>
+    <t>12296 X 130</t>
+  </si>
+  <si>
+    <t>12297 X 130</t>
+  </si>
+  <si>
+    <t>12298 X 130</t>
+  </si>
+  <si>
+    <t>12299 X 130</t>
+  </si>
+  <si>
+    <t>12300 X 130</t>
+  </si>
+  <si>
+    <t>12301 X 130</t>
+  </si>
+  <si>
+    <t>12302 X 130</t>
+  </si>
+  <si>
+    <t>20816 X 10</t>
+  </si>
+  <si>
+    <t>20817 X 10</t>
+  </si>
+  <si>
+    <t>20818 X 10</t>
+  </si>
+  <si>
+    <t>20819 X 10</t>
+  </si>
+  <si>
+    <t>20820 X 10</t>
+  </si>
+  <si>
+    <t>20821 X 10</t>
+  </si>
+  <si>
+    <t>20822 X 10</t>
+  </si>
+  <si>
+    <t>20823 X 10</t>
+  </si>
+  <si>
+    <t>20824 X 10</t>
+  </si>
+  <si>
+    <t>20825 X 10</t>
+  </si>
+  <si>
+    <t>8746 X 7</t>
+  </si>
+  <si>
+    <t>8747 X 7</t>
+  </si>
+  <si>
+    <t>8748 X 7</t>
+  </si>
+  <si>
+    <t>8749 X 7</t>
+  </si>
+  <si>
+    <t>8750 X 7</t>
+  </si>
+  <si>
+    <t>8751 X 7</t>
+  </si>
+  <si>
+    <t>8752 X 7</t>
+  </si>
+  <si>
+    <t>47323 X 7</t>
+  </si>
+  <si>
+    <t>47324 X 7</t>
+  </si>
+  <si>
+    <t>47325 X 7</t>
+  </si>
+  <si>
+    <t>47326 X 7</t>
+  </si>
+  <si>
+    <t>47327 X 7</t>
+  </si>
+  <si>
+    <t>47328 X 7</t>
+  </si>
+  <si>
+    <t>47329 X 7</t>
+  </si>
+  <si>
+    <t>27911 X 6</t>
+  </si>
+  <si>
+    <t>27912 X 6</t>
+  </si>
+  <si>
+    <t>27913 X 6</t>
+  </si>
+  <si>
+    <t>27914 X 6</t>
+  </si>
+  <si>
+    <t>27915 X 6</t>
+  </si>
+  <si>
+    <t>27916 X 6</t>
+  </si>
+  <si>
+    <t>GSM1399032.CTRL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,6 +2741,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1625,7 +2805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1729,6 +2909,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1744,14 +2933,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2070,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F34BF-F1AB-44D3-9CA3-BE09FA4434C8}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2089,10 +3272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
@@ -2100,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="23"/>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="15" t="s">
         <v>50</v>
       </c>
@@ -2210,7 +3393,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2235,7 +3418,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2603,10 +3786,3994 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA12C90-99D5-4A58-B71D-7E082228CCB4}">
+  <dimension ref="A1:G172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B152" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F6" t="s">
+        <v>579</v>
+      </c>
+      <c r="G6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" t="s">
+        <v>574</v>
+      </c>
+      <c r="E7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" t="s">
+        <v>644</v>
+      </c>
+      <c r="F8" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" t="s">
+        <v>651</v>
+      </c>
+      <c r="F10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" t="s">
+        <v>573</v>
+      </c>
+      <c r="E11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" t="s">
+        <v>573</v>
+      </c>
+      <c r="E12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D13" t="s">
+        <v>575</v>
+      </c>
+      <c r="E13" t="s">
+        <v>654</v>
+      </c>
+      <c r="F13" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" t="s">
+        <v>577</v>
+      </c>
+      <c r="D14" t="s">
+        <v>575</v>
+      </c>
+      <c r="E14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E15" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" t="s">
+        <v>575</v>
+      </c>
+      <c r="E16" t="s">
+        <v>657</v>
+      </c>
+      <c r="F16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" t="s">
+        <v>576</v>
+      </c>
+      <c r="C17" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" t="s">
+        <v>575</v>
+      </c>
+      <c r="E17" t="s">
+        <v>658</v>
+      </c>
+      <c r="F17" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>445</v>
+      </c>
+      <c r="B18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+      <c r="D18" t="s">
+        <v>575</v>
+      </c>
+      <c r="E18" t="s">
+        <v>659</v>
+      </c>
+      <c r="F18" t="s">
+        <v>445</v>
+      </c>
+      <c r="G18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>575</v>
+      </c>
+      <c r="E19" t="s">
+        <v>660</v>
+      </c>
+      <c r="F19" t="s">
+        <v>445</v>
+      </c>
+      <c r="G19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E20" t="s">
+        <v>661</v>
+      </c>
+      <c r="F20" t="s">
+        <v>445</v>
+      </c>
+      <c r="G20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" t="s">
+        <v>576</v>
+      </c>
+      <c r="C21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" t="s">
+        <v>575</v>
+      </c>
+      <c r="E21" t="s">
+        <v>662</v>
+      </c>
+      <c r="F21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" t="s">
+        <v>575</v>
+      </c>
+      <c r="E22" t="s">
+        <v>663</v>
+      </c>
+      <c r="F22" t="s">
+        <v>445</v>
+      </c>
+      <c r="G22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" t="s">
+        <v>576</v>
+      </c>
+      <c r="C23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D23" t="s">
+        <v>575</v>
+      </c>
+      <c r="E23" t="s">
+        <v>664</v>
+      </c>
+      <c r="F23" t="s">
+        <v>445</v>
+      </c>
+      <c r="G23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24" t="s">
+        <v>665</v>
+      </c>
+      <c r="F24" t="s">
+        <v>445</v>
+      </c>
+      <c r="G24" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" t="s">
+        <v>576</v>
+      </c>
+      <c r="C25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" t="s">
+        <v>575</v>
+      </c>
+      <c r="E25" t="s">
+        <v>666</v>
+      </c>
+      <c r="F25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" t="s">
+        <v>575</v>
+      </c>
+      <c r="E26" t="s">
+        <v>667</v>
+      </c>
+      <c r="F26" t="s">
+        <v>445</v>
+      </c>
+      <c r="G26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D27" t="s">
+        <v>575</v>
+      </c>
+      <c r="E27" t="s">
+        <v>668</v>
+      </c>
+      <c r="F27" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>575</v>
+      </c>
+      <c r="E28" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" t="s">
+        <v>445</v>
+      </c>
+      <c r="G28" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>459</v>
+      </c>
+      <c r="B29" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29" t="s">
+        <v>575</v>
+      </c>
+      <c r="E29" t="s">
+        <v>670</v>
+      </c>
+      <c r="F29" t="s">
+        <v>445</v>
+      </c>
+      <c r="G29" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30" t="s">
+        <v>575</v>
+      </c>
+      <c r="E30" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" t="s">
+        <v>576</v>
+      </c>
+      <c r="C31" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" t="s">
+        <v>575</v>
+      </c>
+      <c r="E31" t="s">
+        <v>672</v>
+      </c>
+      <c r="F31" t="s">
+        <v>445</v>
+      </c>
+      <c r="G31" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" t="s">
+        <v>673</v>
+      </c>
+      <c r="F32" t="s">
+        <v>445</v>
+      </c>
+      <c r="G32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>440</v>
+      </c>
+      <c r="D33" t="s">
+        <v>575</v>
+      </c>
+      <c r="E33" t="s">
+        <v>674</v>
+      </c>
+      <c r="F33" t="s">
+        <v>445</v>
+      </c>
+      <c r="G33" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" t="s">
+        <v>575</v>
+      </c>
+      <c r="E34" t="s">
+        <v>675</v>
+      </c>
+      <c r="F34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G34" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35" t="s">
+        <v>575</v>
+      </c>
+      <c r="E35" t="s">
+        <v>676</v>
+      </c>
+      <c r="F35" t="s">
+        <v>445</v>
+      </c>
+      <c r="G35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E36" t="s">
+        <v>677</v>
+      </c>
+      <c r="F36" t="s">
+        <v>445</v>
+      </c>
+      <c r="G36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37" t="s">
+        <v>440</v>
+      </c>
+      <c r="D37" t="s">
+        <v>575</v>
+      </c>
+      <c r="E37" t="s">
+        <v>678</v>
+      </c>
+      <c r="F37" t="s">
+        <v>445</v>
+      </c>
+      <c r="G37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" t="s">
+        <v>576</v>
+      </c>
+      <c r="C38" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38" t="s">
+        <v>575</v>
+      </c>
+      <c r="E38" t="s">
+        <v>679</v>
+      </c>
+      <c r="F38" t="s">
+        <v>445</v>
+      </c>
+      <c r="G38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B39" t="s">
+        <v>576</v>
+      </c>
+      <c r="C39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" t="s">
+        <v>575</v>
+      </c>
+      <c r="E39" t="s">
+        <v>680</v>
+      </c>
+      <c r="F39" t="s">
+        <v>445</v>
+      </c>
+      <c r="G39" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B40" t="s">
+        <v>576</v>
+      </c>
+      <c r="C40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" t="s">
+        <v>575</v>
+      </c>
+      <c r="E40" t="s">
+        <v>681</v>
+      </c>
+      <c r="F40" t="s">
+        <v>445</v>
+      </c>
+      <c r="G40" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D41" t="s">
+        <v>575</v>
+      </c>
+      <c r="E41" t="s">
+        <v>682</v>
+      </c>
+      <c r="F41" t="s">
+        <v>445</v>
+      </c>
+      <c r="G41" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>472</v>
+      </c>
+      <c r="B42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C42" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" t="s">
+        <v>575</v>
+      </c>
+      <c r="E42" t="s">
+        <v>683</v>
+      </c>
+      <c r="F42" t="s">
+        <v>445</v>
+      </c>
+      <c r="G42" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>473</v>
+      </c>
+      <c r="B43" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" t="s">
+        <v>575</v>
+      </c>
+      <c r="E43" t="s">
+        <v>684</v>
+      </c>
+      <c r="F43" t="s">
+        <v>445</v>
+      </c>
+      <c r="G43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
+        <v>575</v>
+      </c>
+      <c r="E44" t="s">
+        <v>685</v>
+      </c>
+      <c r="F44" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" t="s">
+        <v>575</v>
+      </c>
+      <c r="E45" t="s">
+        <v>686</v>
+      </c>
+      <c r="F45" t="s">
+        <v>445</v>
+      </c>
+      <c r="G45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>476</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" t="s">
+        <v>575</v>
+      </c>
+      <c r="E46" t="s">
+        <v>687</v>
+      </c>
+      <c r="F46" t="s">
+        <v>445</v>
+      </c>
+      <c r="G46" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" t="s">
+        <v>575</v>
+      </c>
+      <c r="E47" t="s">
+        <v>688</v>
+      </c>
+      <c r="F47" t="s">
+        <v>445</v>
+      </c>
+      <c r="G47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" t="s">
+        <v>576</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" t="s">
+        <v>575</v>
+      </c>
+      <c r="E48" t="s">
+        <v>689</v>
+      </c>
+      <c r="F48" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>479</v>
+      </c>
+      <c r="B49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" t="s">
+        <v>575</v>
+      </c>
+      <c r="E49" t="s">
+        <v>690</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>480</v>
+      </c>
+      <c r="B50" t="s">
+        <v>576</v>
+      </c>
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" t="s">
+        <v>575</v>
+      </c>
+      <c r="E50" t="s">
+        <v>691</v>
+      </c>
+      <c r="F50" t="s">
+        <v>445</v>
+      </c>
+      <c r="G50" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>481</v>
+      </c>
+      <c r="B51" t="s">
+        <v>576</v>
+      </c>
+      <c r="C51" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" t="s">
+        <v>575</v>
+      </c>
+      <c r="E51" t="s">
+        <v>692</v>
+      </c>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>482</v>
+      </c>
+      <c r="B52" t="s">
+        <v>576</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" t="s">
+        <v>575</v>
+      </c>
+      <c r="E52" t="s">
+        <v>693</v>
+      </c>
+      <c r="F52" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>483</v>
+      </c>
+      <c r="B53" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" t="s">
+        <v>575</v>
+      </c>
+      <c r="E53" t="s">
+        <v>694</v>
+      </c>
+      <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>484</v>
+      </c>
+      <c r="B54" t="s">
+        <v>576</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" t="s">
+        <v>575</v>
+      </c>
+      <c r="E54" t="s">
+        <v>695</v>
+      </c>
+      <c r="F54" t="s">
+        <v>445</v>
+      </c>
+      <c r="G54" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>485</v>
+      </c>
+      <c r="B55" t="s">
+        <v>576</v>
+      </c>
+      <c r="C55" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" t="s">
+        <v>575</v>
+      </c>
+      <c r="E55" t="s">
+        <v>696</v>
+      </c>
+      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C56" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" t="s">
+        <v>575</v>
+      </c>
+      <c r="E56" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B57" t="s">
+        <v>576</v>
+      </c>
+      <c r="C57" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" t="s">
+        <v>575</v>
+      </c>
+      <c r="E57" t="s">
+        <v>698</v>
+      </c>
+      <c r="F57" t="s">
+        <v>445</v>
+      </c>
+      <c r="G57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>488</v>
+      </c>
+      <c r="B58" t="s">
+        <v>576</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" t="s">
+        <v>575</v>
+      </c>
+      <c r="E58" t="s">
+        <v>699</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>489</v>
+      </c>
+      <c r="B59" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" t="s">
+        <v>575</v>
+      </c>
+      <c r="E59" t="s">
+        <v>700</v>
+      </c>
+      <c r="F59" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>490</v>
+      </c>
+      <c r="B60" t="s">
+        <v>576</v>
+      </c>
+      <c r="C60" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" t="s">
+        <v>575</v>
+      </c>
+      <c r="E60" t="s">
+        <v>701</v>
+      </c>
+      <c r="F60" t="s">
+        <v>445</v>
+      </c>
+      <c r="G60" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>491</v>
+      </c>
+      <c r="B61" t="s">
+        <v>576</v>
+      </c>
+      <c r="C61" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" t="s">
+        <v>575</v>
+      </c>
+      <c r="E61" t="s">
+        <v>702</v>
+      </c>
+      <c r="F61" t="s">
+        <v>445</v>
+      </c>
+      <c r="G61" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>492</v>
+      </c>
+      <c r="B62" t="s">
+        <v>576</v>
+      </c>
+      <c r="C62" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" t="s">
+        <v>575</v>
+      </c>
+      <c r="E62" t="s">
+        <v>703</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" t="s">
+        <v>576</v>
+      </c>
+      <c r="C63" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" t="s">
+        <v>575</v>
+      </c>
+      <c r="E63" t="s">
+        <v>704</v>
+      </c>
+      <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>499</v>
+      </c>
+      <c r="B64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" t="s">
+        <v>575</v>
+      </c>
+      <c r="E64" t="s">
+        <v>705</v>
+      </c>
+      <c r="F64" t="s">
+        <v>445</v>
+      </c>
+      <c r="G64" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>500</v>
+      </c>
+      <c r="B65" t="s">
+        <v>576</v>
+      </c>
+      <c r="C65" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" t="s">
+        <v>575</v>
+      </c>
+      <c r="E65" t="s">
+        <v>706</v>
+      </c>
+      <c r="F65" t="s">
+        <v>445</v>
+      </c>
+      <c r="G65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" t="s">
+        <v>576</v>
+      </c>
+      <c r="C66" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" t="s">
+        <v>575</v>
+      </c>
+      <c r="E66" t="s">
+        <v>707</v>
+      </c>
+      <c r="F66" t="s">
+        <v>445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>502</v>
+      </c>
+      <c r="B67" t="s">
+        <v>576</v>
+      </c>
+      <c r="C67" t="s">
+        <v>440</v>
+      </c>
+      <c r="D67" t="s">
+        <v>575</v>
+      </c>
+      <c r="E67" t="s">
+        <v>708</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>493</v>
+      </c>
+      <c r="B68" t="s">
+        <v>576</v>
+      </c>
+      <c r="C68" t="s">
+        <v>440</v>
+      </c>
+      <c r="D68" t="s">
+        <v>575</v>
+      </c>
+      <c r="E68" t="s">
+        <v>709</v>
+      </c>
+      <c r="F68" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>494</v>
+      </c>
+      <c r="B69" t="s">
+        <v>576</v>
+      </c>
+      <c r="C69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D69" t="s">
+        <v>575</v>
+      </c>
+      <c r="E69" t="s">
+        <v>710</v>
+      </c>
+      <c r="F69" t="s">
+        <v>445</v>
+      </c>
+      <c r="G69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>495</v>
+      </c>
+      <c r="B70" t="s">
+        <v>576</v>
+      </c>
+      <c r="C70" t="s">
+        <v>440</v>
+      </c>
+      <c r="D70" t="s">
+        <v>575</v>
+      </c>
+      <c r="E70" t="s">
+        <v>711</v>
+      </c>
+      <c r="F70" t="s">
+        <v>445</v>
+      </c>
+      <c r="G70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>576</v>
+      </c>
+      <c r="C71" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" t="s">
+        <v>575</v>
+      </c>
+      <c r="E71" t="s">
+        <v>712</v>
+      </c>
+      <c r="F71" t="s">
+        <v>445</v>
+      </c>
+      <c r="G71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>497</v>
+      </c>
+      <c r="B72" t="s">
+        <v>576</v>
+      </c>
+      <c r="C72" t="s">
+        <v>440</v>
+      </c>
+      <c r="D72" t="s">
+        <v>575</v>
+      </c>
+      <c r="E72" t="s">
+        <v>713</v>
+      </c>
+      <c r="F72" t="s">
+        <v>445</v>
+      </c>
+      <c r="G72" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B73" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" t="s">
+        <v>575</v>
+      </c>
+      <c r="E73" t="s">
+        <v>714</v>
+      </c>
+      <c r="F73" t="s">
+        <v>445</v>
+      </c>
+      <c r="G73" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>504</v>
+      </c>
+      <c r="B74" t="s">
+        <v>576</v>
+      </c>
+      <c r="C74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" t="s">
+        <v>575</v>
+      </c>
+      <c r="E74" t="s">
+        <v>715</v>
+      </c>
+      <c r="F74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G74" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>505</v>
+      </c>
+      <c r="B75" t="s">
+        <v>576</v>
+      </c>
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>575</v>
+      </c>
+      <c r="E75" t="s">
+        <v>716</v>
+      </c>
+      <c r="F75" t="s">
+        <v>445</v>
+      </c>
+      <c r="G75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>506</v>
+      </c>
+      <c r="B76" t="s">
+        <v>576</v>
+      </c>
+      <c r="C76" t="s">
+        <v>440</v>
+      </c>
+      <c r="D76" t="s">
+        <v>575</v>
+      </c>
+      <c r="E76" t="s">
+        <v>717</v>
+      </c>
+      <c r="F76" t="s">
+        <v>445</v>
+      </c>
+      <c r="G76" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>507</v>
+      </c>
+      <c r="B77" t="s">
+        <v>576</v>
+      </c>
+      <c r="C77" t="s">
+        <v>440</v>
+      </c>
+      <c r="D77" t="s">
+        <v>575</v>
+      </c>
+      <c r="E77" t="s">
+        <v>718</v>
+      </c>
+      <c r="F77" t="s">
+        <v>445</v>
+      </c>
+      <c r="G77" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>508</v>
+      </c>
+      <c r="B78" t="s">
+        <v>576</v>
+      </c>
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" t="s">
+        <v>575</v>
+      </c>
+      <c r="E78" t="s">
+        <v>719</v>
+      </c>
+      <c r="F78" t="s">
+        <v>445</v>
+      </c>
+      <c r="G78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>509</v>
+      </c>
+      <c r="B79" t="s">
+        <v>576</v>
+      </c>
+      <c r="C79" t="s">
+        <v>440</v>
+      </c>
+      <c r="D79" t="s">
+        <v>575</v>
+      </c>
+      <c r="E79" t="s">
+        <v>720</v>
+      </c>
+      <c r="F79" t="s">
+        <v>445</v>
+      </c>
+      <c r="G79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>510</v>
+      </c>
+      <c r="B80" t="s">
+        <v>576</v>
+      </c>
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>575</v>
+      </c>
+      <c r="E80" t="s">
+        <v>721</v>
+      </c>
+      <c r="F80" t="s">
+        <v>445</v>
+      </c>
+      <c r="G80" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>511</v>
+      </c>
+      <c r="B81" t="s">
+        <v>576</v>
+      </c>
+      <c r="C81" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" t="s">
+        <v>575</v>
+      </c>
+      <c r="E81" t="s">
+        <v>722</v>
+      </c>
+      <c r="F81" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>512</v>
+      </c>
+      <c r="B82" t="s">
+        <v>576</v>
+      </c>
+      <c r="C82" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" t="s">
+        <v>575</v>
+      </c>
+      <c r="E82" t="s">
+        <v>723</v>
+      </c>
+      <c r="F82" t="s">
+        <v>445</v>
+      </c>
+      <c r="G82" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>513</v>
+      </c>
+      <c r="B83" t="s">
+        <v>576</v>
+      </c>
+      <c r="C83" t="s">
+        <v>440</v>
+      </c>
+      <c r="D83" t="s">
+        <v>575</v>
+      </c>
+      <c r="E83" t="s">
+        <v>724</v>
+      </c>
+      <c r="F83" t="s">
+        <v>445</v>
+      </c>
+      <c r="G83" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" t="s">
+        <v>576</v>
+      </c>
+      <c r="C84" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" t="s">
+        <v>575</v>
+      </c>
+      <c r="E84" t="s">
+        <v>725</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>515</v>
+      </c>
+      <c r="B85" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>440</v>
+      </c>
+      <c r="D85" t="s">
+        <v>575</v>
+      </c>
+      <c r="E85" t="s">
+        <v>726</v>
+      </c>
+      <c r="F85" t="s">
+        <v>445</v>
+      </c>
+      <c r="G85" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>516</v>
+      </c>
+      <c r="B86" t="s">
+        <v>576</v>
+      </c>
+      <c r="C86" t="s">
+        <v>440</v>
+      </c>
+      <c r="D86" t="s">
+        <v>575</v>
+      </c>
+      <c r="E86" t="s">
+        <v>727</v>
+      </c>
+      <c r="F86" t="s">
+        <v>445</v>
+      </c>
+      <c r="G86" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" t="s">
+        <v>576</v>
+      </c>
+      <c r="C87" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" t="s">
+        <v>575</v>
+      </c>
+      <c r="E87" t="s">
+        <v>728</v>
+      </c>
+      <c r="F87" t="s">
+        <v>445</v>
+      </c>
+      <c r="G87" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B88" t="s">
+        <v>576</v>
+      </c>
+      <c r="C88" t="s">
+        <v>440</v>
+      </c>
+      <c r="D88" t="s">
+        <v>575</v>
+      </c>
+      <c r="E88" t="s">
+        <v>729</v>
+      </c>
+      <c r="F88" t="s">
+        <v>445</v>
+      </c>
+      <c r="G88" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89" t="s">
+        <v>576</v>
+      </c>
+      <c r="C89" t="s">
+        <v>440</v>
+      </c>
+      <c r="D89" t="s">
+        <v>575</v>
+      </c>
+      <c r="E89" t="s">
+        <v>730</v>
+      </c>
+      <c r="F89" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>520</v>
+      </c>
+      <c r="B90" t="s">
+        <v>576</v>
+      </c>
+      <c r="C90" t="s">
+        <v>440</v>
+      </c>
+      <c r="D90" t="s">
+        <v>575</v>
+      </c>
+      <c r="E90" t="s">
+        <v>731</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91" t="s">
+        <v>576</v>
+      </c>
+      <c r="C91" t="s">
+        <v>440</v>
+      </c>
+      <c r="D91" t="s">
+        <v>575</v>
+      </c>
+      <c r="E91" t="s">
+        <v>732</v>
+      </c>
+      <c r="F91" t="s">
+        <v>445</v>
+      </c>
+      <c r="G91" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>522</v>
+      </c>
+      <c r="B92" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+      <c r="E92" t="s">
+        <v>733</v>
+      </c>
+      <c r="F92" t="s">
+        <v>445</v>
+      </c>
+      <c r="G92" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>523</v>
+      </c>
+      <c r="B93" t="s">
+        <v>576</v>
+      </c>
+      <c r="C93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" t="s">
+        <v>734</v>
+      </c>
+      <c r="F93" t="s">
+        <v>445</v>
+      </c>
+      <c r="G93" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>524</v>
+      </c>
+      <c r="B94" t="s">
+        <v>576</v>
+      </c>
+      <c r="C94" t="s">
+        <v>440</v>
+      </c>
+      <c r="D94" t="s">
+        <v>575</v>
+      </c>
+      <c r="E94" t="s">
+        <v>735</v>
+      </c>
+      <c r="F94" t="s">
+        <v>445</v>
+      </c>
+      <c r="G94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>525</v>
+      </c>
+      <c r="B95" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" t="s">
+        <v>440</v>
+      </c>
+      <c r="D95" t="s">
+        <v>575</v>
+      </c>
+      <c r="E95" t="s">
+        <v>736</v>
+      </c>
+      <c r="F95" t="s">
+        <v>445</v>
+      </c>
+      <c r="G95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96" t="s">
+        <v>576</v>
+      </c>
+      <c r="C96" t="s">
+        <v>440</v>
+      </c>
+      <c r="D96" t="s">
+        <v>575</v>
+      </c>
+      <c r="E96" t="s">
+        <v>737</v>
+      </c>
+      <c r="F96" t="s">
+        <v>445</v>
+      </c>
+      <c r="G96" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>527</v>
+      </c>
+      <c r="B97" t="s">
+        <v>576</v>
+      </c>
+      <c r="C97" t="s">
+        <v>440</v>
+      </c>
+      <c r="D97" t="s">
+        <v>575</v>
+      </c>
+      <c r="E97" t="s">
+        <v>738</v>
+      </c>
+      <c r="F97" t="s">
+        <v>445</v>
+      </c>
+      <c r="G97" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" t="s">
+        <v>440</v>
+      </c>
+      <c r="D98" t="s">
+        <v>575</v>
+      </c>
+      <c r="E98" t="s">
+        <v>739</v>
+      </c>
+      <c r="F98" t="s">
+        <v>445</v>
+      </c>
+      <c r="G98" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>529</v>
+      </c>
+      <c r="B99" t="s">
+        <v>576</v>
+      </c>
+      <c r="C99" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" t="s">
+        <v>575</v>
+      </c>
+      <c r="E99" t="s">
+        <v>740</v>
+      </c>
+      <c r="F99" t="s">
+        <v>445</v>
+      </c>
+      <c r="G99" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>530</v>
+      </c>
+      <c r="B100" t="s">
+        <v>576</v>
+      </c>
+      <c r="C100" t="s">
+        <v>440</v>
+      </c>
+      <c r="D100" t="s">
+        <v>575</v>
+      </c>
+      <c r="E100" t="s">
+        <v>741</v>
+      </c>
+      <c r="F100" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>531</v>
+      </c>
+      <c r="B101" t="s">
+        <v>576</v>
+      </c>
+      <c r="C101" t="s">
+        <v>440</v>
+      </c>
+      <c r="D101" t="s">
+        <v>575</v>
+      </c>
+      <c r="E101" t="s">
+        <v>742</v>
+      </c>
+      <c r="F101" t="s">
+        <v>445</v>
+      </c>
+      <c r="G101" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B102" t="s">
+        <v>576</v>
+      </c>
+      <c r="C102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D102" t="s">
+        <v>575</v>
+      </c>
+      <c r="E102" t="s">
+        <v>743</v>
+      </c>
+      <c r="F102" t="s">
+        <v>445</v>
+      </c>
+      <c r="G102" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" t="s">
+        <v>576</v>
+      </c>
+      <c r="C103" t="s">
+        <v>440</v>
+      </c>
+      <c r="D103" t="s">
+        <v>575</v>
+      </c>
+      <c r="E103" t="s">
+        <v>744</v>
+      </c>
+      <c r="F103" t="s">
+        <v>445</v>
+      </c>
+      <c r="G103" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>534</v>
+      </c>
+      <c r="B104" t="s">
+        <v>576</v>
+      </c>
+      <c r="C104" t="s">
+        <v>440</v>
+      </c>
+      <c r="D104" t="s">
+        <v>575</v>
+      </c>
+      <c r="E104" t="s">
+        <v>745</v>
+      </c>
+      <c r="F104" t="s">
+        <v>445</v>
+      </c>
+      <c r="G104" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105" t="s">
+        <v>576</v>
+      </c>
+      <c r="C105" t="s">
+        <v>440</v>
+      </c>
+      <c r="D105" t="s">
+        <v>575</v>
+      </c>
+      <c r="E105" t="s">
+        <v>746</v>
+      </c>
+      <c r="F105" t="s">
+        <v>445</v>
+      </c>
+      <c r="G105" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B106" t="s">
+        <v>576</v>
+      </c>
+      <c r="C106" t="s">
+        <v>440</v>
+      </c>
+      <c r="D106" t="s">
+        <v>575</v>
+      </c>
+      <c r="E106" t="s">
+        <v>747</v>
+      </c>
+      <c r="F106" t="s">
+        <v>445</v>
+      </c>
+      <c r="G106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>537</v>
+      </c>
+      <c r="B107" t="s">
+        <v>576</v>
+      </c>
+      <c r="C107" t="s">
+        <v>440</v>
+      </c>
+      <c r="D107" t="s">
+        <v>575</v>
+      </c>
+      <c r="E107" t="s">
+        <v>748</v>
+      </c>
+      <c r="F107" t="s">
+        <v>445</v>
+      </c>
+      <c r="G107" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>538</v>
+      </c>
+      <c r="B108" t="s">
+        <v>576</v>
+      </c>
+      <c r="C108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>575</v>
+      </c>
+      <c r="E108" t="s">
+        <v>749</v>
+      </c>
+      <c r="F108" t="s">
+        <v>445</v>
+      </c>
+      <c r="G108" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>539</v>
+      </c>
+      <c r="B109" t="s">
+        <v>576</v>
+      </c>
+      <c r="C109" t="s">
+        <v>440</v>
+      </c>
+      <c r="D109" t="s">
+        <v>575</v>
+      </c>
+      <c r="E109" t="s">
+        <v>750</v>
+      </c>
+      <c r="F109" t="s">
+        <v>445</v>
+      </c>
+      <c r="G109" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>540</v>
+      </c>
+      <c r="B110" t="s">
+        <v>576</v>
+      </c>
+      <c r="C110" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" t="s">
+        <v>751</v>
+      </c>
+      <c r="F110" t="s">
+        <v>445</v>
+      </c>
+      <c r="G110" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>541</v>
+      </c>
+      <c r="B111" t="s">
+        <v>576</v>
+      </c>
+      <c r="C111" t="s">
+        <v>440</v>
+      </c>
+      <c r="D111" t="s">
+        <v>575</v>
+      </c>
+      <c r="E111" t="s">
+        <v>752</v>
+      </c>
+      <c r="F111" t="s">
+        <v>445</v>
+      </c>
+      <c r="G111" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>542</v>
+      </c>
+      <c r="B112" t="s">
+        <v>576</v>
+      </c>
+      <c r="C112" t="s">
+        <v>440</v>
+      </c>
+      <c r="D112" t="s">
+        <v>575</v>
+      </c>
+      <c r="E112" t="s">
+        <v>753</v>
+      </c>
+      <c r="F112" t="s">
+        <v>445</v>
+      </c>
+      <c r="G112" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>543</v>
+      </c>
+      <c r="B113" t="s">
+        <v>576</v>
+      </c>
+      <c r="C113" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" t="s">
+        <v>575</v>
+      </c>
+      <c r="E113" t="s">
+        <v>754</v>
+      </c>
+      <c r="F113" t="s">
+        <v>445</v>
+      </c>
+      <c r="G113" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>544</v>
+      </c>
+      <c r="B114" t="s">
+        <v>576</v>
+      </c>
+      <c r="C114" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114" t="s">
+        <v>575</v>
+      </c>
+      <c r="E114" t="s">
+        <v>755</v>
+      </c>
+      <c r="F114" t="s">
+        <v>445</v>
+      </c>
+      <c r="G114" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>545</v>
+      </c>
+      <c r="B115" t="s">
+        <v>576</v>
+      </c>
+      <c r="C115" t="s">
+        <v>440</v>
+      </c>
+      <c r="D115" t="s">
+        <v>575</v>
+      </c>
+      <c r="E115" t="s">
+        <v>756</v>
+      </c>
+      <c r="F115" t="s">
+        <v>445</v>
+      </c>
+      <c r="G115" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>546</v>
+      </c>
+      <c r="B116" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" t="s">
+        <v>440</v>
+      </c>
+      <c r="D116" t="s">
+        <v>575</v>
+      </c>
+      <c r="E116" t="s">
+        <v>757</v>
+      </c>
+      <c r="F116" t="s">
+        <v>445</v>
+      </c>
+      <c r="G116" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>547</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
+        <v>440</v>
+      </c>
+      <c r="D117" t="s">
+        <v>575</v>
+      </c>
+      <c r="E117" t="s">
+        <v>758</v>
+      </c>
+      <c r="F117" t="s">
+        <v>445</v>
+      </c>
+      <c r="G117" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>548</v>
+      </c>
+      <c r="B118" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118" t="s">
+        <v>440</v>
+      </c>
+      <c r="D118" t="s">
+        <v>575</v>
+      </c>
+      <c r="E118" t="s">
+        <v>759</v>
+      </c>
+      <c r="F118" t="s">
+        <v>445</v>
+      </c>
+      <c r="G118" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>549</v>
+      </c>
+      <c r="B119" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" t="s">
+        <v>440</v>
+      </c>
+      <c r="D119" t="s">
+        <v>575</v>
+      </c>
+      <c r="E119" t="s">
+        <v>760</v>
+      </c>
+      <c r="F119" t="s">
+        <v>445</v>
+      </c>
+      <c r="G119" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>550</v>
+      </c>
+      <c r="B120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C120" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" t="s">
+        <v>575</v>
+      </c>
+      <c r="E120" t="s">
+        <v>761</v>
+      </c>
+      <c r="F120" t="s">
+        <v>445</v>
+      </c>
+      <c r="G120" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>551</v>
+      </c>
+      <c r="B121" t="s">
+        <v>576</v>
+      </c>
+      <c r="C121" t="s">
+        <v>440</v>
+      </c>
+      <c r="D121" t="s">
+        <v>575</v>
+      </c>
+      <c r="E121" t="s">
+        <v>762</v>
+      </c>
+      <c r="F121" t="s">
+        <v>445</v>
+      </c>
+      <c r="G121" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>552</v>
+      </c>
+      <c r="B122" t="s">
+        <v>576</v>
+      </c>
+      <c r="C122" t="s">
+        <v>440</v>
+      </c>
+      <c r="D122" t="s">
+        <v>575</v>
+      </c>
+      <c r="E122" t="s">
+        <v>763</v>
+      </c>
+      <c r="F122" t="s">
+        <v>445</v>
+      </c>
+      <c r="G122" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>553</v>
+      </c>
+      <c r="B123" t="s">
+        <v>576</v>
+      </c>
+      <c r="C123" t="s">
+        <v>440</v>
+      </c>
+      <c r="D123" t="s">
+        <v>575</v>
+      </c>
+      <c r="E123" t="s">
+        <v>764</v>
+      </c>
+      <c r="F123" t="s">
+        <v>445</v>
+      </c>
+      <c r="G123" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>554</v>
+      </c>
+      <c r="B124" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" t="s">
+        <v>440</v>
+      </c>
+      <c r="D124" t="s">
+        <v>575</v>
+      </c>
+      <c r="E124" t="s">
+        <v>765</v>
+      </c>
+      <c r="F124" t="s">
+        <v>445</v>
+      </c>
+      <c r="G124" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>555</v>
+      </c>
+      <c r="B125" t="s">
+        <v>576</v>
+      </c>
+      <c r="C125" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" t="s">
+        <v>575</v>
+      </c>
+      <c r="E125" t="s">
+        <v>766</v>
+      </c>
+      <c r="F125" t="s">
+        <v>445</v>
+      </c>
+      <c r="G125" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>556</v>
+      </c>
+      <c r="B126" t="s">
+        <v>576</v>
+      </c>
+      <c r="C126" t="s">
+        <v>440</v>
+      </c>
+      <c r="D126" t="s">
+        <v>575</v>
+      </c>
+      <c r="E126" t="s">
+        <v>767</v>
+      </c>
+      <c r="F126" t="s">
+        <v>445</v>
+      </c>
+      <c r="G126" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>557</v>
+      </c>
+      <c r="B127" t="s">
+        <v>576</v>
+      </c>
+      <c r="C127" t="s">
+        <v>440</v>
+      </c>
+      <c r="D127" t="s">
+        <v>575</v>
+      </c>
+      <c r="E127" t="s">
+        <v>768</v>
+      </c>
+      <c r="F127" t="s">
+        <v>445</v>
+      </c>
+      <c r="G127" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>558</v>
+      </c>
+      <c r="B128" t="s">
+        <v>576</v>
+      </c>
+      <c r="C128" t="s">
+        <v>440</v>
+      </c>
+      <c r="D128" t="s">
+        <v>575</v>
+      </c>
+      <c r="E128" t="s">
+        <v>769</v>
+      </c>
+      <c r="F128" t="s">
+        <v>445</v>
+      </c>
+      <c r="G128" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>559</v>
+      </c>
+      <c r="B129" t="s">
+        <v>576</v>
+      </c>
+      <c r="C129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
+        <v>575</v>
+      </c>
+      <c r="E129" t="s">
+        <v>770</v>
+      </c>
+      <c r="F129" t="s">
+        <v>445</v>
+      </c>
+      <c r="G129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>560</v>
+      </c>
+      <c r="B130" t="s">
+        <v>576</v>
+      </c>
+      <c r="C130" t="s">
+        <v>440</v>
+      </c>
+      <c r="D130" t="s">
+        <v>575</v>
+      </c>
+      <c r="E130" t="s">
+        <v>771</v>
+      </c>
+      <c r="F130" t="s">
+        <v>445</v>
+      </c>
+      <c r="G130" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>561</v>
+      </c>
+      <c r="B131" t="s">
+        <v>576</v>
+      </c>
+      <c r="C131" t="s">
+        <v>440</v>
+      </c>
+      <c r="D131" t="s">
+        <v>575</v>
+      </c>
+      <c r="E131" t="s">
+        <v>772</v>
+      </c>
+      <c r="F131" t="s">
+        <v>445</v>
+      </c>
+      <c r="G131" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>562</v>
+      </c>
+      <c r="B132" t="s">
+        <v>576</v>
+      </c>
+      <c r="C132" t="s">
+        <v>440</v>
+      </c>
+      <c r="D132" t="s">
+        <v>575</v>
+      </c>
+      <c r="E132" t="s">
+        <v>773</v>
+      </c>
+      <c r="F132" t="s">
+        <v>445</v>
+      </c>
+      <c r="G132" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>563</v>
+      </c>
+      <c r="B133" t="s">
+        <v>576</v>
+      </c>
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>575</v>
+      </c>
+      <c r="E133" t="s">
+        <v>774</v>
+      </c>
+      <c r="F133" t="s">
+        <v>445</v>
+      </c>
+      <c r="G133" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>564</v>
+      </c>
+      <c r="B134" t="s">
+        <v>576</v>
+      </c>
+      <c r="C134" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" t="s">
+        <v>575</v>
+      </c>
+      <c r="E134" t="s">
+        <v>775</v>
+      </c>
+      <c r="F134" t="s">
+        <v>445</v>
+      </c>
+      <c r="G134" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>565</v>
+      </c>
+      <c r="B135" t="s">
+        <v>576</v>
+      </c>
+      <c r="C135" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" t="s">
+        <v>575</v>
+      </c>
+      <c r="E135" t="s">
+        <v>776</v>
+      </c>
+      <c r="F135" t="s">
+        <v>445</v>
+      </c>
+      <c r="G135" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" t="s">
+        <v>576</v>
+      </c>
+      <c r="C136" t="s">
+        <v>440</v>
+      </c>
+      <c r="D136" t="s">
+        <v>575</v>
+      </c>
+      <c r="E136" t="s">
+        <v>777</v>
+      </c>
+      <c r="F136" t="s">
+        <v>445</v>
+      </c>
+      <c r="G136" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>567</v>
+      </c>
+      <c r="B137" t="s">
+        <v>576</v>
+      </c>
+      <c r="C137" t="s">
+        <v>440</v>
+      </c>
+      <c r="D137" t="s">
+        <v>575</v>
+      </c>
+      <c r="E137" t="s">
+        <v>778</v>
+      </c>
+      <c r="F137" t="s">
+        <v>445</v>
+      </c>
+      <c r="G137" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>568</v>
+      </c>
+      <c r="B138" t="s">
+        <v>576</v>
+      </c>
+      <c r="C138" t="s">
+        <v>440</v>
+      </c>
+      <c r="D138" t="s">
+        <v>575</v>
+      </c>
+      <c r="E138" t="s">
+        <v>779</v>
+      </c>
+      <c r="F138" t="s">
+        <v>445</v>
+      </c>
+      <c r="G138" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>569</v>
+      </c>
+      <c r="B139" t="s">
+        <v>576</v>
+      </c>
+      <c r="C139" t="s">
+        <v>440</v>
+      </c>
+      <c r="D139" t="s">
+        <v>575</v>
+      </c>
+      <c r="E139" t="s">
+        <v>780</v>
+      </c>
+      <c r="F139" t="s">
+        <v>445</v>
+      </c>
+      <c r="G139" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>570</v>
+      </c>
+      <c r="B140" t="s">
+        <v>576</v>
+      </c>
+      <c r="C140" t="s">
+        <v>440</v>
+      </c>
+      <c r="D140" t="s">
+        <v>575</v>
+      </c>
+      <c r="E140" t="s">
+        <v>781</v>
+      </c>
+      <c r="F140" t="s">
+        <v>445</v>
+      </c>
+      <c r="G140" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>571</v>
+      </c>
+      <c r="B141" t="s">
+        <v>576</v>
+      </c>
+      <c r="C141" t="s">
+        <v>440</v>
+      </c>
+      <c r="D141" t="s">
+        <v>575</v>
+      </c>
+      <c r="E141" t="s">
+        <v>782</v>
+      </c>
+      <c r="F141" t="s">
+        <v>445</v>
+      </c>
+      <c r="G141" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>572</v>
+      </c>
+      <c r="B142" t="s">
+        <v>576</v>
+      </c>
+      <c r="C142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D142" t="s">
+        <v>575</v>
+      </c>
+      <c r="E142" t="s">
+        <v>783</v>
+      </c>
+      <c r="F142" t="s">
+        <v>445</v>
+      </c>
+      <c r="G142" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>580</v>
+      </c>
+      <c r="B143" t="s">
+        <v>582</v>
+      </c>
+      <c r="C143" t="s">
+        <v>577</v>
+      </c>
+      <c r="D143" t="s">
+        <v>581</v>
+      </c>
+      <c r="E143" t="s">
+        <v>784</v>
+      </c>
+      <c r="F143" t="s">
+        <v>580</v>
+      </c>
+      <c r="G143" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>583</v>
+      </c>
+      <c r="B144" t="s">
+        <v>582</v>
+      </c>
+      <c r="C144" t="s">
+        <v>440</v>
+      </c>
+      <c r="D144" t="s">
+        <v>581</v>
+      </c>
+      <c r="E144" t="s">
+        <v>785</v>
+      </c>
+      <c r="F144" t="s">
+        <v>580</v>
+      </c>
+      <c r="G144" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>584</v>
+      </c>
+      <c r="B145" t="s">
+        <v>582</v>
+      </c>
+      <c r="C145" t="s">
+        <v>440</v>
+      </c>
+      <c r="D145" t="s">
+        <v>581</v>
+      </c>
+      <c r="E145" t="s">
+        <v>786</v>
+      </c>
+      <c r="F145" t="s">
+        <v>580</v>
+      </c>
+      <c r="G145" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>585</v>
+      </c>
+      <c r="B146" t="s">
+        <v>582</v>
+      </c>
+      <c r="C146" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" t="s">
+        <v>787</v>
+      </c>
+      <c r="F146" t="s">
+        <v>580</v>
+      </c>
+      <c r="G146" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>586</v>
+      </c>
+      <c r="B147" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" t="s">
+        <v>440</v>
+      </c>
+      <c r="D147" t="s">
+        <v>581</v>
+      </c>
+      <c r="E147" t="s">
+        <v>788</v>
+      </c>
+      <c r="F147" t="s">
+        <v>580</v>
+      </c>
+      <c r="G147" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>587</v>
+      </c>
+      <c r="B148" t="s">
+        <v>582</v>
+      </c>
+      <c r="C148" t="s">
+        <v>440</v>
+      </c>
+      <c r="D148" t="s">
+        <v>581</v>
+      </c>
+      <c r="E148" t="s">
+        <v>789</v>
+      </c>
+      <c r="F148" t="s">
+        <v>580</v>
+      </c>
+      <c r="G148" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>588</v>
+      </c>
+      <c r="B149" t="s">
+        <v>582</v>
+      </c>
+      <c r="C149" t="s">
+        <v>440</v>
+      </c>
+      <c r="D149" t="s">
+        <v>581</v>
+      </c>
+      <c r="E149" t="s">
+        <v>790</v>
+      </c>
+      <c r="F149" t="s">
+        <v>580</v>
+      </c>
+      <c r="G149" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>589</v>
+      </c>
+      <c r="B150" t="s">
+        <v>582</v>
+      </c>
+      <c r="C150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D150" t="s">
+        <v>581</v>
+      </c>
+      <c r="E150" t="s">
+        <v>791</v>
+      </c>
+      <c r="F150" t="s">
+        <v>580</v>
+      </c>
+      <c r="G150" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>590</v>
+      </c>
+      <c r="B151" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" t="s">
+        <v>581</v>
+      </c>
+      <c r="E151" t="s">
+        <v>792</v>
+      </c>
+      <c r="F151" t="s">
+        <v>580</v>
+      </c>
+      <c r="G151" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>591</v>
+      </c>
+      <c r="B152" t="s">
+        <v>582</v>
+      </c>
+      <c r="C152" t="s">
+        <v>440</v>
+      </c>
+      <c r="D152" t="s">
+        <v>581</v>
+      </c>
+      <c r="E152" t="s">
+        <v>793</v>
+      </c>
+      <c r="F152" t="s">
+        <v>580</v>
+      </c>
+      <c r="G152" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>614</v>
+      </c>
+      <c r="B153" t="s">
+        <v>610</v>
+      </c>
+      <c r="C153" t="s">
+        <v>440</v>
+      </c>
+      <c r="D153" t="s">
+        <v>611</v>
+      </c>
+      <c r="E153" t="s">
+        <v>794</v>
+      </c>
+      <c r="F153" t="s">
+        <v>239</v>
+      </c>
+      <c r="G153" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>615</v>
+      </c>
+      <c r="B154" t="s">
+        <v>610</v>
+      </c>
+      <c r="C154" t="s">
+        <v>440</v>
+      </c>
+      <c r="D154" t="s">
+        <v>611</v>
+      </c>
+      <c r="E154" t="s">
+        <v>795</v>
+      </c>
+      <c r="F154" t="s">
+        <v>239</v>
+      </c>
+      <c r="G154" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>616</v>
+      </c>
+      <c r="B155" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" t="s">
+        <v>440</v>
+      </c>
+      <c r="D155" t="s">
+        <v>611</v>
+      </c>
+      <c r="E155" t="s">
+        <v>796</v>
+      </c>
+      <c r="F155" t="s">
+        <v>239</v>
+      </c>
+      <c r="G155" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>617</v>
+      </c>
+      <c r="B156" t="s">
+        <v>610</v>
+      </c>
+      <c r="C156" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" t="s">
+        <v>611</v>
+      </c>
+      <c r="E156" t="s">
+        <v>797</v>
+      </c>
+      <c r="F156" t="s">
+        <v>239</v>
+      </c>
+      <c r="G156" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>618</v>
+      </c>
+      <c r="B157" t="s">
+        <v>610</v>
+      </c>
+      <c r="C157" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" t="s">
+        <v>611</v>
+      </c>
+      <c r="E157" t="s">
+        <v>798</v>
+      </c>
+      <c r="F157" t="s">
+        <v>239</v>
+      </c>
+      <c r="G157" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>619</v>
+      </c>
+      <c r="B158" t="s">
+        <v>610</v>
+      </c>
+      <c r="C158" t="s">
+        <v>440</v>
+      </c>
+      <c r="D158" t="s">
+        <v>611</v>
+      </c>
+      <c r="E158" t="s">
+        <v>799</v>
+      </c>
+      <c r="F158" t="s">
+        <v>239</v>
+      </c>
+      <c r="G158" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>239</v>
+      </c>
+      <c r="B159" t="s">
+        <v>610</v>
+      </c>
+      <c r="C159" t="s">
+        <v>440</v>
+      </c>
+      <c r="D159" t="s">
+        <v>611</v>
+      </c>
+      <c r="E159" t="s">
+        <v>800</v>
+      </c>
+      <c r="F159" t="s">
+        <v>239</v>
+      </c>
+      <c r="G159" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>624</v>
+      </c>
+      <c r="B160" t="s">
+        <v>623</v>
+      </c>
+      <c r="C160" t="s">
+        <v>441</v>
+      </c>
+      <c r="D160" t="s">
+        <v>612</v>
+      </c>
+      <c r="E160" t="s">
+        <v>801</v>
+      </c>
+      <c r="F160" t="s">
+        <v>580</v>
+      </c>
+      <c r="G160" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>625</v>
+      </c>
+      <c r="B161" t="s">
+        <v>623</v>
+      </c>
+      <c r="C161" t="s">
+        <v>441</v>
+      </c>
+      <c r="D161" t="s">
+        <v>612</v>
+      </c>
+      <c r="E161" t="s">
+        <v>802</v>
+      </c>
+      <c r="F161" t="s">
+        <v>580</v>
+      </c>
+      <c r="G161" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>626</v>
+      </c>
+      <c r="B162" t="s">
+        <v>623</v>
+      </c>
+      <c r="C162" t="s">
+        <v>441</v>
+      </c>
+      <c r="D162" t="s">
+        <v>612</v>
+      </c>
+      <c r="E162" t="s">
+        <v>803</v>
+      </c>
+      <c r="F162" t="s">
+        <v>580</v>
+      </c>
+      <c r="G162" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>627</v>
+      </c>
+      <c r="B163" t="s">
+        <v>623</v>
+      </c>
+      <c r="C163" t="s">
+        <v>441</v>
+      </c>
+      <c r="D163" t="s">
+        <v>612</v>
+      </c>
+      <c r="E163" t="s">
+        <v>804</v>
+      </c>
+      <c r="F163" t="s">
+        <v>580</v>
+      </c>
+      <c r="G163" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>628</v>
+      </c>
+      <c r="B164" t="s">
+        <v>623</v>
+      </c>
+      <c r="C164" t="s">
+        <v>441</v>
+      </c>
+      <c r="D164" t="s">
+        <v>612</v>
+      </c>
+      <c r="E164" t="s">
+        <v>805</v>
+      </c>
+      <c r="F164" t="s">
+        <v>580</v>
+      </c>
+      <c r="G164" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>629</v>
+      </c>
+      <c r="B165" t="s">
+        <v>623</v>
+      </c>
+      <c r="C165" t="s">
+        <v>441</v>
+      </c>
+      <c r="D165" t="s">
+        <v>612</v>
+      </c>
+      <c r="E165" t="s">
+        <v>806</v>
+      </c>
+      <c r="F165" t="s">
+        <v>580</v>
+      </c>
+      <c r="G165" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>580</v>
+      </c>
+      <c r="B166" t="s">
+        <v>623</v>
+      </c>
+      <c r="C166" t="s">
+        <v>441</v>
+      </c>
+      <c r="D166" t="s">
+        <v>612</v>
+      </c>
+      <c r="E166" t="s">
+        <v>807</v>
+      </c>
+      <c r="F166" t="s">
+        <v>580</v>
+      </c>
+      <c r="G166" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="B167" t="s">
+        <v>639</v>
+      </c>
+      <c r="C167" t="s">
+        <v>440</v>
+      </c>
+      <c r="D167" t="s">
+        <v>613</v>
+      </c>
+      <c r="E167" t="s">
+        <v>808</v>
+      </c>
+      <c r="F167" t="s">
+        <v>445</v>
+      </c>
+      <c r="G167" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>635</v>
+      </c>
+      <c r="B168" t="s">
+        <v>639</v>
+      </c>
+      <c r="C168" t="s">
+        <v>440</v>
+      </c>
+      <c r="D168" t="s">
+        <v>613</v>
+      </c>
+      <c r="E168" t="s">
+        <v>809</v>
+      </c>
+      <c r="F168" t="s">
+        <v>445</v>
+      </c>
+      <c r="G168" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>636</v>
+      </c>
+      <c r="B169" t="s">
+        <v>639</v>
+      </c>
+      <c r="C169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" t="s">
+        <v>613</v>
+      </c>
+      <c r="E169" t="s">
+        <v>810</v>
+      </c>
+      <c r="F169" t="s">
+        <v>445</v>
+      </c>
+      <c r="G169" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>637</v>
+      </c>
+      <c r="B170" t="s">
+        <v>639</v>
+      </c>
+      <c r="C170" t="s">
+        <v>440</v>
+      </c>
+      <c r="D170" t="s">
+        <v>613</v>
+      </c>
+      <c r="E170" t="s">
+        <v>811</v>
+      </c>
+      <c r="F170" t="s">
+        <v>445</v>
+      </c>
+      <c r="G170" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>638</v>
+      </c>
+      <c r="B171" t="s">
+        <v>639</v>
+      </c>
+      <c r="C171" t="s">
+        <v>440</v>
+      </c>
+      <c r="D171" t="s">
+        <v>613</v>
+      </c>
+      <c r="E171" t="s">
+        <v>812</v>
+      </c>
+      <c r="F171" t="s">
+        <v>445</v>
+      </c>
+      <c r="G171" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>445</v>
+      </c>
+      <c r="B172" t="s">
+        <v>639</v>
+      </c>
+      <c r="C172" t="s">
+        <v>440</v>
+      </c>
+      <c r="D172" t="s">
+        <v>613</v>
+      </c>
+      <c r="E172" t="s">
+        <v>813</v>
+      </c>
+      <c r="F172" t="s">
+        <v>445</v>
+      </c>
+      <c r="G172" t="s">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
+    <sortCondition ref="A25"/>
+  </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05EBF3-6745-4848-97F4-4C6CCEF2239E}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2618,11 +7785,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2987,64 +8154,64 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+    <row r="35" spans="1:3" s="42" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3060,11 +8227,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB9838-ED1C-45AB-A6D5-0D1A29EC8965}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3075,376 +8242,376 @@
     <col min="3" max="3" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="43" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:3" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:3" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:3" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="43" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>358</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="43" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="48" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" s="43" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:3" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="48" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:3" s="43" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="43" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="48" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:3" s="43" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:3" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="43" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="43" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="43" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:3" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="43" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:3" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="43" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:3" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="43" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:3" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="43" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="48" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:3" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>401</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="43" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="43" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:3" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="43" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="48" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:3" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
         <v>409</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="43" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="48" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:3" s="43" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="43" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="43" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
         <v>419</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:3" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="43" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:3" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="43" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3454,7 +8621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD88711-2F41-4B31-9076-9977AF7B32DD}">
   <dimension ref="A1:AH10"/>
   <sheetViews>
